--- a/Information/Изменение результатов.xlsx
+++ b/Information/Изменение результатов.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\1\Desktop\MAPF_System_2\Information\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BA17C84-E84A-40F2-88DA-CEACBAED2F51}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FAF4C64F-5950-413F-A369-BE7564D5E8F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="599" xr2:uid="{0BBE610F-FD71-401D-9DCE-6AF9F6A4B4C0}"/>
   </bookViews>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="50">
   <si>
     <t>Имя файла</t>
   </si>
@@ -185,6 +185,12 @@
   </si>
   <si>
     <t>поднимать g далее не эффективно</t>
+  </si>
+  <si>
+    <t>убираю туннели</t>
+  </si>
+  <si>
+    <t>когда всё туннель</t>
   </si>
 </sst>
 </file>
@@ -287,19 +293,20 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="2" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -674,7 +681,7 @@
   <dimension ref="A1:W58"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+      <selection activeCell="F51" sqref="F51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -683,7 +690,7 @@
     <col min="2" max="2" width="17.5703125" style="2" customWidth="1"/>
     <col min="3" max="3" width="31.5703125" customWidth="1"/>
     <col min="4" max="4" width="36" customWidth="1"/>
-    <col min="5" max="5" width="30.28515625" style="2" customWidth="1"/>
+    <col min="5" max="5" width="21.5703125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="16.42578125" style="2" customWidth="1"/>
     <col min="7" max="7" width="13.5703125" style="2" customWidth="1"/>
     <col min="8" max="8" width="16.28515625" style="2" customWidth="1"/>
@@ -707,6 +714,9 @@
       <c r="D1" t="s">
         <v>1</v>
       </c>
+      <c r="E1" t="s">
+        <v>1</v>
+      </c>
       <c r="N1" s="3"/>
       <c r="O1" s="3"/>
       <c r="V1" s="3"/>
@@ -716,16 +726,18 @@
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="6">
+      <c r="B2">
         <v>4</v>
       </c>
-      <c r="C2" s="6">
+      <c r="C2">
         <v>4</v>
       </c>
-      <c r="D2" s="6">
+      <c r="D2">
         <v>4</v>
       </c>
-      <c r="E2" s="4"/>
+      <c r="E2" s="11">
+        <v>4</v>
+      </c>
       <c r="F2" s="4"/>
       <c r="G2" s="4"/>
       <c r="H2" s="4"/>
@@ -740,16 +752,18 @@
       <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="6">
+      <c r="B3">
         <v>3</v>
       </c>
-      <c r="C3" s="6">
+      <c r="C3">
         <v>3</v>
       </c>
-      <c r="D3" s="6">
+      <c r="D3">
         <v>3</v>
       </c>
-      <c r="E3" s="4"/>
+      <c r="E3" s="11">
+        <v>3</v>
+      </c>
       <c r="F3" s="4"/>
       <c r="G3" s="4"/>
       <c r="H3" s="4"/>
@@ -764,16 +778,18 @@
       <c r="A4" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="B4" s="6">
+      <c r="B4">
         <v>126</v>
       </c>
-      <c r="C4" s="7">
+      <c r="C4" s="6">
         <v>101</v>
       </c>
-      <c r="D4" s="11">
+      <c r="D4" s="10">
         <v>107</v>
       </c>
-      <c r="E4" s="4"/>
+      <c r="E4" s="11">
+        <v>107</v>
+      </c>
       <c r="F4" s="4"/>
       <c r="G4" s="4"/>
       <c r="H4" s="4"/>
@@ -788,16 +804,18 @@
       <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="6">
+      <c r="B5">
         <v>37</v>
       </c>
-      <c r="C5" s="6">
+      <c r="C5">
         <v>37</v>
       </c>
-      <c r="D5" s="6">
+      <c r="D5">
         <v>37</v>
       </c>
-      <c r="E5" s="4"/>
+      <c r="E5" s="12">
+        <v>28</v>
+      </c>
       <c r="F5" s="4"/>
       <c r="G5" s="4"/>
       <c r="H5" s="4"/>
@@ -812,16 +830,18 @@
       <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="6">
+      <c r="B6">
         <v>2</v>
       </c>
-      <c r="C6" s="6">
+      <c r="C6">
         <v>2</v>
       </c>
-      <c r="D6" s="6">
+      <c r="D6">
         <v>2</v>
       </c>
-      <c r="E6" s="4"/>
+      <c r="E6" s="11">
+        <v>2</v>
+      </c>
       <c r="F6" s="4"/>
       <c r="G6" s="4"/>
       <c r="H6" s="4"/>
@@ -836,16 +856,18 @@
       <c r="A7" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="6">
+      <c r="B7">
         <v>7</v>
       </c>
-      <c r="C7" s="6">
+      <c r="C7">
         <v>7</v>
       </c>
-      <c r="D7" s="6">
+      <c r="D7">
         <v>7</v>
       </c>
-      <c r="E7" s="4"/>
+      <c r="E7" s="11">
+        <v>7</v>
+      </c>
       <c r="F7" s="4"/>
       <c r="G7" s="4"/>
       <c r="H7" s="4"/>
@@ -860,16 +882,18 @@
       <c r="A8" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="6">
+      <c r="B8">
         <v>10</v>
       </c>
-      <c r="C8" s="6">
+      <c r="C8">
         <v>10</v>
       </c>
-      <c r="D8" s="6">
+      <c r="D8">
         <v>10</v>
       </c>
-      <c r="E8" s="4"/>
+      <c r="E8" s="11">
+        <v>10</v>
+      </c>
       <c r="F8" s="4"/>
       <c r="G8" s="4"/>
       <c r="H8" s="4"/>
@@ -884,16 +908,18 @@
       <c r="A9" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="6">
+      <c r="B9">
         <v>154</v>
       </c>
-      <c r="C9" s="8">
+      <c r="C9" s="7">
         <v>165</v>
       </c>
-      <c r="D9" s="8">
+      <c r="D9" s="7">
         <v>157</v>
       </c>
-      <c r="E9" s="4"/>
+      <c r="E9" s="11">
+        <v>157</v>
+      </c>
       <c r="F9" s="4"/>
       <c r="G9" s="4"/>
       <c r="H9" s="4"/>
@@ -908,16 +934,18 @@
       <c r="A10" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="6">
+      <c r="B10">
         <v>167</v>
       </c>
-      <c r="C10" s="8">
+      <c r="C10" s="7">
         <v>169</v>
       </c>
-      <c r="D10" s="11">
+      <c r="D10" s="10">
         <v>159</v>
       </c>
-      <c r="E10" s="4"/>
+      <c r="E10" s="11">
+        <v>159</v>
+      </c>
       <c r="F10" s="4"/>
       <c r="G10" s="4"/>
       <c r="H10" s="4"/>
@@ -932,16 +960,18 @@
       <c r="A11" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B11" s="6">
+      <c r="B11">
         <v>1083</v>
       </c>
-      <c r="C11" s="7">
+      <c r="C11" s="6">
         <v>1007</v>
       </c>
-      <c r="D11" s="8">
+      <c r="D11" s="7">
         <v>1143</v>
       </c>
-      <c r="E11" s="4"/>
+      <c r="E11" s="11">
+        <v>1143</v>
+      </c>
       <c r="F11" s="4"/>
       <c r="G11" s="4"/>
       <c r="H11" s="4"/>
@@ -956,16 +986,18 @@
       <c r="A12" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B12" s="6">
+      <c r="B12">
         <v>80</v>
       </c>
-      <c r="C12" s="8">
+      <c r="C12" s="7">
         <v>849</v>
       </c>
-      <c r="D12" s="11">
+      <c r="D12" s="10">
         <v>72</v>
       </c>
-      <c r="E12" s="4"/>
+      <c r="E12" s="11">
+        <v>72</v>
+      </c>
       <c r="F12" s="4"/>
       <c r="G12" s="4"/>
       <c r="H12" s="4"/>
@@ -980,16 +1012,18 @@
       <c r="A13" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B13" s="6">
+      <c r="B13">
         <v>1811</v>
       </c>
-      <c r="C13" s="7">
+      <c r="C13" s="6">
         <v>1533</v>
       </c>
-      <c r="D13" s="11">
+      <c r="D13" s="10">
         <v>1749</v>
       </c>
-      <c r="E13" s="4"/>
+      <c r="E13" s="11">
+        <v>1749</v>
+      </c>
       <c r="F13" s="4"/>
       <c r="G13" s="4"/>
       <c r="H13" s="4"/>
@@ -1004,16 +1038,18 @@
       <c r="A14" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B14" s="6">
+      <c r="B14">
         <v>97</v>
       </c>
-      <c r="C14" s="7">
+      <c r="C14" s="6">
         <v>76</v>
       </c>
-      <c r="D14" s="11">
+      <c r="D14" s="10">
         <v>76</v>
       </c>
-      <c r="E14" s="4"/>
+      <c r="E14" s="11">
+        <v>76</v>
+      </c>
       <c r="F14" s="4"/>
       <c r="G14" s="4"/>
       <c r="H14" s="4"/>
@@ -1028,16 +1064,18 @@
       <c r="A15" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="B15" s="6">
+      <c r="B15">
         <v>95</v>
       </c>
-      <c r="C15" s="8">
+      <c r="C15" s="7">
         <v>156</v>
       </c>
-      <c r="D15" s="11">
+      <c r="D15" s="10">
         <v>23</v>
       </c>
-      <c r="E15" s="4"/>
+      <c r="E15" s="11">
+        <v>23</v>
+      </c>
       <c r="F15" s="4"/>
       <c r="G15" s="4"/>
       <c r="H15" s="4"/>
@@ -1052,16 +1090,18 @@
       <c r="A16" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="B16" s="6">
+      <c r="B16">
         <v>160</v>
       </c>
-      <c r="C16" s="8">
+      <c r="C16" s="7">
         <v>183</v>
       </c>
-      <c r="D16" s="11">
+      <c r="D16" s="10">
         <v>38</v>
       </c>
-      <c r="E16" s="4"/>
+      <c r="E16" s="11">
+        <v>38</v>
+      </c>
       <c r="F16" s="4"/>
       <c r="G16" s="4"/>
       <c r="H16" s="4"/>
@@ -1076,16 +1116,18 @@
       <c r="A17" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B17" s="6">
+      <c r="B17">
         <v>160</v>
       </c>
-      <c r="C17" s="8">
+      <c r="C17" s="7">
         <v>183</v>
       </c>
-      <c r="D17" s="11">
+      <c r="D17" s="10">
         <v>38</v>
       </c>
-      <c r="E17" s="4"/>
+      <c r="E17" s="11">
+        <v>38</v>
+      </c>
       <c r="F17" s="4"/>
       <c r="G17" s="4"/>
       <c r="H17" s="4"/>
@@ -1100,16 +1142,18 @@
       <c r="A18" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B18" s="6">
+      <c r="B18">
         <v>108</v>
       </c>
-      <c r="C18" s="7">
+      <c r="C18" s="6">
         <v>35</v>
       </c>
-      <c r="D18" s="11">
+      <c r="D18" s="10">
         <v>24</v>
       </c>
-      <c r="E18" s="4"/>
+      <c r="E18" s="11">
+        <v>24</v>
+      </c>
       <c r="F18" s="4"/>
       <c r="G18" s="4"/>
       <c r="H18" s="4"/>
@@ -1124,16 +1168,18 @@
       <c r="A19" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="B19" s="6">
+      <c r="B19">
         <v>134</v>
       </c>
-      <c r="C19" s="6">
+      <c r="C19">
         <v>134</v>
       </c>
-      <c r="D19" s="8">
+      <c r="D19" s="7">
         <v>148</v>
       </c>
-      <c r="E19" s="4"/>
+      <c r="E19" s="11">
+        <v>148</v>
+      </c>
       <c r="F19" s="4"/>
       <c r="G19" s="4"/>
       <c r="H19" s="4"/>
@@ -1148,16 +1194,18 @@
       <c r="A20" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="B20" s="6">
+      <c r="B20">
         <v>397</v>
       </c>
-      <c r="C20" s="8">
+      <c r="C20" s="7">
         <v>557</v>
       </c>
-      <c r="D20" s="11">
+      <c r="D20" s="10">
         <v>392</v>
       </c>
-      <c r="E20" s="4"/>
+      <c r="E20" s="11">
+        <v>392</v>
+      </c>
       <c r="F20" s="4"/>
       <c r="G20" s="4"/>
       <c r="H20" s="4"/>
@@ -1172,16 +1220,18 @@
       <c r="A21" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="B21" s="6">
+      <c r="B21">
         <v>864</v>
       </c>
-      <c r="C21" s="7">
+      <c r="C21" s="6">
         <v>569</v>
       </c>
-      <c r="D21" s="11">
+      <c r="D21" s="10">
         <v>409</v>
       </c>
-      <c r="E21" s="4"/>
+      <c r="E21" s="11">
+        <v>409</v>
+      </c>
       <c r="F21" s="4"/>
       <c r="G21" s="4"/>
       <c r="H21" s="4"/>
@@ -1196,16 +1246,18 @@
       <c r="A22" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="B22" s="6">
+      <c r="B22">
         <v>374</v>
       </c>
-      <c r="C22" s="7">
+      <c r="C22" s="6">
         <v>343</v>
       </c>
-      <c r="D22" s="8">
+      <c r="D22" s="7">
         <v>399</v>
       </c>
-      <c r="E22" s="4"/>
+      <c r="E22" s="11">
+        <v>399</v>
+      </c>
       <c r="F22" s="4"/>
       <c r="G22" s="4"/>
       <c r="H22" s="4"/>
@@ -1220,16 +1272,18 @@
       <c r="A23" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="B23" s="6">
+      <c r="B23">
         <v>246</v>
       </c>
-      <c r="C23" s="8">
+      <c r="C23" s="7">
         <v>277</v>
       </c>
-      <c r="D23" s="8">
+      <c r="D23" s="7">
         <v>321</v>
       </c>
-      <c r="E23" s="4"/>
+      <c r="E23" s="11">
+        <v>321</v>
+      </c>
       <c r="F23" s="4"/>
       <c r="G23" s="4"/>
       <c r="H23" s="4"/>
@@ -1244,16 +1298,18 @@
       <c r="A24" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="B24" s="6">
+      <c r="B24">
         <v>323</v>
       </c>
-      <c r="C24" s="9">
+      <c r="C24" s="8">
         <v>231</v>
       </c>
-      <c r="D24" s="11">
+      <c r="D24" s="10">
         <v>265</v>
       </c>
-      <c r="E24" s="4"/>
+      <c r="E24" s="11">
+        <v>265</v>
+      </c>
       <c r="F24" s="4"/>
       <c r="G24" s="4"/>
       <c r="H24" s="4"/>
@@ -1268,16 +1324,18 @@
       <c r="A25" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="B25" s="6">
+      <c r="B25">
         <v>354</v>
       </c>
-      <c r="C25" s="8">
+      <c r="C25" s="7">
         <v>581</v>
       </c>
-      <c r="D25" s="11">
+      <c r="D25" s="10">
         <v>231</v>
       </c>
-      <c r="E25" s="4"/>
+      <c r="E25" s="11">
+        <v>231</v>
+      </c>
       <c r="F25" s="4"/>
       <c r="G25" s="4"/>
       <c r="H25" s="4"/>
@@ -1292,16 +1350,18 @@
       <c r="A26" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B26" s="6">
+      <c r="B26">
         <v>67</v>
       </c>
-      <c r="C26" s="7">
+      <c r="C26" s="6">
         <v>65</v>
       </c>
-      <c r="D26" s="6">
+      <c r="D26">
         <v>67</v>
       </c>
-      <c r="E26" s="4"/>
+      <c r="E26" s="11">
+        <v>67</v>
+      </c>
       <c r="F26" s="4"/>
       <c r="G26" s="4"/>
       <c r="H26" s="4"/>
@@ -1316,16 +1376,18 @@
       <c r="A27" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="B27" s="6">
+      <c r="B27">
         <v>50</v>
       </c>
-      <c r="C27" s="8">
+      <c r="C27" s="7">
         <v>73</v>
       </c>
-      <c r="D27" s="8">
+      <c r="D27" s="7">
         <v>73</v>
       </c>
-      <c r="E27" s="4"/>
+      <c r="E27" s="11">
+        <v>73</v>
+      </c>
       <c r="F27" s="4"/>
       <c r="G27" s="4"/>
       <c r="H27" s="4"/>
@@ -1340,16 +1402,18 @@
       <c r="A28" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B28" s="6">
+      <c r="B28">
         <v>17</v>
       </c>
-      <c r="C28" s="6">
+      <c r="C28">
         <v>17</v>
       </c>
-      <c r="D28" s="11">
+      <c r="D28" s="10">
         <v>16</v>
       </c>
-      <c r="E28" s="4"/>
+      <c r="E28" s="11">
+        <v>16</v>
+      </c>
       <c r="F28" s="4"/>
       <c r="G28" s="4"/>
       <c r="H28" s="4"/>
@@ -1364,16 +1428,18 @@
       <c r="A29" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B29" s="6">
+      <c r="B29">
         <v>19</v>
       </c>
-      <c r="C29" s="7">
+      <c r="C29" s="6">
         <v>17</v>
       </c>
-      <c r="D29" s="6">
+      <c r="D29">
         <v>19</v>
       </c>
-      <c r="E29" s="4"/>
+      <c r="E29" s="11">
+        <v>19</v>
+      </c>
       <c r="F29" s="4"/>
       <c r="G29" s="4"/>
       <c r="H29" s="4"/>
@@ -1388,13 +1454,16 @@
       <c r="A30" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B30" s="6">
+      <c r="B30">
         <v>18</v>
       </c>
-      <c r="C30" s="7">
+      <c r="C30" s="6">
         <v>17</v>
       </c>
-      <c r="D30" s="8">
+      <c r="D30" s="7">
+        <v>19</v>
+      </c>
+      <c r="E30" s="11">
         <v>19</v>
       </c>
       <c r="L30" s="4"/>
@@ -1406,13 +1475,16 @@
       <c r="A31" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B31" s="6">
+      <c r="B31">
         <v>21</v>
       </c>
-      <c r="C31" s="7">
+      <c r="C31" s="6">
         <v>19</v>
       </c>
-      <c r="D31" s="6">
+      <c r="D31">
+        <v>21</v>
+      </c>
+      <c r="E31" s="11">
         <v>21</v>
       </c>
       <c r="L31" s="4"/>
@@ -1424,13 +1496,16 @@
       <c r="A32" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B32" s="6">
+      <c r="B32">
         <v>20</v>
       </c>
-      <c r="C32" s="7">
+      <c r="C32" s="6">
         <v>19</v>
       </c>
-      <c r="D32" s="8">
+      <c r="D32" s="7">
+        <v>21</v>
+      </c>
+      <c r="E32" s="11">
         <v>21</v>
       </c>
       <c r="L32" s="4"/>
@@ -1450,13 +1525,16 @@
       <c r="A33" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B33" s="6">
+      <c r="B33">
         <v>21</v>
       </c>
-      <c r="C33" s="8">
+      <c r="C33" s="7">
         <v>22</v>
       </c>
-      <c r="D33" s="11">
+      <c r="D33" s="10">
+        <v>19</v>
+      </c>
+      <c r="E33" s="11">
         <v>19</v>
       </c>
       <c r="L33" s="4"/>
@@ -1468,13 +1546,16 @@
       <c r="A34" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B34" s="6">
+      <c r="B34">
         <v>21</v>
       </c>
-      <c r="C34" s="7">
+      <c r="C34" s="6">
         <v>19</v>
       </c>
-      <c r="D34" s="11">
+      <c r="D34" s="10">
+        <v>19</v>
+      </c>
+      <c r="E34" s="11">
         <v>19</v>
       </c>
       <c r="L34" s="4"/>
@@ -1485,13 +1566,16 @@
       <c r="A35" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B35" s="6">
+      <c r="B35">
         <v>20</v>
       </c>
-      <c r="C35" s="6">
+      <c r="C35">
         <v>20</v>
       </c>
-      <c r="D35" s="6">
+      <c r="D35">
+        <v>20</v>
+      </c>
+      <c r="E35" s="11">
         <v>20</v>
       </c>
       <c r="L35" s="4"/>
@@ -1504,13 +1588,16 @@
       <c r="A36" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B36" s="6">
+      <c r="B36">
         <v>5</v>
       </c>
-      <c r="C36" s="6">
+      <c r="C36">
         <v>5</v>
       </c>
-      <c r="D36" s="6">
+      <c r="D36">
+        <v>5</v>
+      </c>
+      <c r="E36" s="11">
         <v>5</v>
       </c>
       <c r="L36" s="4"/>
@@ -1522,14 +1609,17 @@
       <c r="A37" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B37" s="6">
+      <c r="B37">
         <v>21</v>
       </c>
-      <c r="C37" s="7">
+      <c r="C37" s="6">
         <v>17</v>
       </c>
-      <c r="D37" s="11">
+      <c r="D37" s="10">
         <v>17</v>
+      </c>
+      <c r="E37" s="12">
+        <v>9</v>
       </c>
       <c r="L37" s="4"/>
       <c r="M37" s="4"/>
@@ -1549,6 +1639,9 @@
       <c r="D38" s="1" t="s">
         <v>30</v>
       </c>
+      <c r="E38" s="12">
+        <v>16</v>
+      </c>
       <c r="L38" s="4"/>
       <c r="M38" s="4"/>
       <c r="R38" s="4"/>
@@ -1557,16 +1650,18 @@
       <c r="A39" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B39" s="6">
+      <c r="B39">
         <v>36</v>
       </c>
-      <c r="C39" s="6">
+      <c r="C39">
         <v>36</v>
       </c>
-      <c r="D39" s="6">
+      <c r="D39">
         <v>36</v>
       </c>
-      <c r="E39" s="4"/>
+      <c r="E39" s="11">
+        <v>36</v>
+      </c>
       <c r="F39" s="4"/>
       <c r="G39" s="4"/>
       <c r="H39" s="4"/>
@@ -1582,16 +1677,18 @@
       <c r="A40" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="B40" s="6">
+      <c r="B40">
         <v>15</v>
       </c>
-      <c r="C40" s="6">
+      <c r="C40">
         <v>15</v>
       </c>
-      <c r="D40" s="6">
+      <c r="D40">
         <v>15</v>
       </c>
-      <c r="E40" s="4"/>
+      <c r="E40" s="11">
+        <v>15</v>
+      </c>
       <c r="F40" s="4"/>
       <c r="G40" s="4"/>
       <c r="H40" s="4"/>
@@ -1605,13 +1702,16 @@
       <c r="A41" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B41" s="6">
+      <c r="B41">
         <v>12</v>
       </c>
-      <c r="C41" s="6">
+      <c r="C41">
         <v>12</v>
       </c>
-      <c r="D41" s="6">
+      <c r="D41">
+        <v>12</v>
+      </c>
+      <c r="E41" s="11">
         <v>12</v>
       </c>
       <c r="L41" s="4"/>
@@ -1626,7 +1726,6 @@
     <row r="42" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A42" s="4"/>
       <c r="B42" s="4"/>
-      <c r="E42" s="4"/>
       <c r="F42" s="4"/>
       <c r="G42" s="4"/>
       <c r="H42" s="4"/>
@@ -1640,7 +1739,6 @@
     <row r="43" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A43" s="4"/>
       <c r="B43" s="4"/>
-      <c r="E43" s="4"/>
       <c r="F43" s="4"/>
       <c r="G43" s="4"/>
       <c r="H43" s="4"/>
@@ -1652,7 +1750,6 @@
     <row r="44" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A44" s="4"/>
       <c r="B44" s="4"/>
-      <c r="E44" s="4"/>
       <c r="F44" s="4"/>
       <c r="G44" s="4"/>
       <c r="H44" s="4"/>
@@ -1665,19 +1762,22 @@
     </row>
     <row r="45" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A45" s="4"/>
-      <c r="B45" s="10">
+      <c r="B45" s="9">
         <f>SUM(Таблица1[Колличество шагов])</f>
         <v>7159</v>
       </c>
-      <c r="C45" s="10">
+      <c r="C45" s="9">
         <f>SUM(C2:C41)</f>
         <v>7585</v>
       </c>
-      <c r="D45" s="10">
+      <c r="D45" s="9">
         <f>SUM(D2:D41)</f>
         <v>6193</v>
       </c>
-      <c r="E45" s="4"/>
+      <c r="E45" s="9">
+        <f>SUM(E2:E41)</f>
+        <v>6192</v>
+      </c>
       <c r="F45" s="4"/>
       <c r="G45" s="4"/>
       <c r="H45" s="4"/>
@@ -1689,7 +1789,6 @@
     <row r="46" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A46" s="4"/>
       <c r="B46" s="4"/>
-      <c r="E46" s="4"/>
       <c r="F46" s="4"/>
       <c r="G46" s="4"/>
       <c r="H46" s="4"/>
@@ -1711,7 +1810,9 @@
       <c r="D47" t="s">
         <v>45</v>
       </c>
-      <c r="E47" s="4"/>
+      <c r="E47" t="s">
+        <v>48</v>
+      </c>
       <c r="F47" s="4"/>
       <c r="G47" s="4"/>
       <c r="H47" s="4"/>
@@ -1726,7 +1827,9 @@
       <c r="D48" t="s">
         <v>47</v>
       </c>
-      <c r="E48" s="4"/>
+      <c r="E48" t="s">
+        <v>49</v>
+      </c>
       <c r="F48" s="4"/>
       <c r="G48" s="4"/>
       <c r="H48" s="4"/>
@@ -1743,7 +1846,6 @@
       <c r="D49" t="s">
         <v>46</v>
       </c>
-      <c r="E49" s="4"/>
       <c r="F49" s="4"/>
       <c r="G49" s="4"/>
       <c r="H49" s="4"/>
@@ -1755,7 +1857,6 @@
     <row r="50" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A50" s="4"/>
       <c r="B50" s="4"/>
-      <c r="E50" s="4"/>
       <c r="F50" s="4"/>
       <c r="G50" s="4"/>
       <c r="H50" s="4"/>
@@ -1769,7 +1870,6 @@
     <row r="51" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A51" s="4"/>
       <c r="B51" s="4"/>
-      <c r="E51" s="4"/>
       <c r="F51" s="4"/>
       <c r="G51" s="4"/>
       <c r="H51" s="4"/>
@@ -1781,7 +1881,6 @@
     <row r="52" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A52" s="4"/>
       <c r="B52" s="4"/>
-      <c r="E52" s="4"/>
       <c r="F52" s="4"/>
       <c r="G52" s="4"/>
       <c r="H52" s="4"/>
@@ -1795,7 +1894,6 @@
     <row r="53" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A53" s="4"/>
       <c r="B53" s="4"/>
-      <c r="E53" s="4"/>
       <c r="F53" s="4"/>
       <c r="G53" s="4"/>
       <c r="H53" s="4"/>
@@ -1806,7 +1904,6 @@
     </row>
     <row r="54" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A54" s="4"/>
-      <c r="E54" s="4"/>
       <c r="F54" s="4"/>
       <c r="G54" s="4"/>
       <c r="H54" s="4"/>
@@ -1821,7 +1918,6 @@
     <row r="55" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A55" s="4"/>
       <c r="B55" s="4"/>
-      <c r="E55" s="4"/>
       <c r="F55" s="4"/>
       <c r="G55" s="4"/>
       <c r="H55" s="4"/>
@@ -1832,7 +1928,6 @@
       <c r="V55" s="5"/>
     </row>
     <row r="56" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="E56" s="4"/>
       <c r="F56" s="4"/>
       <c r="G56" s="4"/>
       <c r="H56" s="4"/>
@@ -1841,7 +1936,6 @@
       <c r="K56" s="4"/>
     </row>
     <row r="57" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="E57" s="4"/>
       <c r="F57" s="4"/>
       <c r="G57" s="4"/>
       <c r="H57" s="4"/>
@@ -1850,7 +1944,6 @@
       <c r="K57" s="4"/>
     </row>
     <row r="58" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="E58" s="4"/>
       <c r="F58" s="4"/>
       <c r="G58" s="4"/>
       <c r="H58" s="4"/>

--- a/Information/Изменение результатов.xlsx
+++ b/Information/Изменение результатов.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\1\Desktop\MAPF_System_2\Information\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FAF4C64F-5950-413F-A369-BE7564D5E8F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0DBD3264-8E83-4600-B5FA-A7434C381AC9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="599" xr2:uid="{0BBE610F-FD71-401D-9DCE-6AF9F6A4B4C0}"/>
   </bookViews>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="61">
   <si>
     <t>Имя файла</t>
   </si>
@@ -191,6 +191,39 @@
   </si>
   <si>
     <t>когда всё туннель</t>
+  </si>
+  <si>
+    <t>NEW_ERROR12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">решаем/не решаем </t>
+  </si>
+  <si>
+    <t>случайным образом</t>
+  </si>
+  <si>
+    <t>прошлые состояния</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1) запрет на ходьбу в </t>
+  </si>
+  <si>
+    <t>2) запрет на движение</t>
+  </si>
+  <si>
+    <t>роботов, если они</t>
+  </si>
+  <si>
+    <t>достигли своих целей</t>
+  </si>
+  <si>
+    <t>и не перегораживают путь</t>
+  </si>
+  <si>
+    <t>3) очистка пройденного пути</t>
+  </si>
+  <si>
+    <t>при достижении цели</t>
   </si>
 </sst>
 </file>
@@ -216,7 +249,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -265,6 +298,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC00000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="2">
     <border>
@@ -293,7 +332,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -307,6 +346,11 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="0" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="1" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="1" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="1" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -680,8 +724,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:W58"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="F51" sqref="F51"/>
+    <sheetView tabSelected="1" topLeftCell="A26" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="H41" sqref="H41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -691,8 +735,8 @@
     <col min="3" max="3" width="31.5703125" customWidth="1"/>
     <col min="4" max="4" width="36" customWidth="1"/>
     <col min="5" max="5" width="21.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.42578125" style="2" customWidth="1"/>
-    <col min="7" max="7" width="13.5703125" style="2" customWidth="1"/>
+    <col min="6" max="6" width="26.140625" customWidth="1"/>
+    <col min="7" max="7" width="26" customWidth="1"/>
     <col min="8" max="8" width="16.28515625" style="2" customWidth="1"/>
     <col min="9" max="9" width="9.140625" style="2"/>
     <col min="10" max="10" width="9.7109375" style="2" customWidth="1"/>
@@ -717,6 +761,12 @@
       <c r="E1" t="s">
         <v>1</v>
       </c>
+      <c r="F1" t="s">
+        <v>1</v>
+      </c>
+      <c r="G1" t="s">
+        <v>1</v>
+      </c>
       <c r="N1" s="3"/>
       <c r="O1" s="3"/>
       <c r="V1" s="3"/>
@@ -738,8 +788,12 @@
       <c r="E2" s="11">
         <v>4</v>
       </c>
-      <c r="F2" s="4"/>
-      <c r="G2" s="4"/>
+      <c r="F2">
+        <v>4</v>
+      </c>
+      <c r="G2" s="17">
+        <v>4</v>
+      </c>
       <c r="H2" s="4"/>
       <c r="I2" s="4"/>
       <c r="J2" s="4"/>
@@ -764,8 +818,12 @@
       <c r="E3" s="11">
         <v>3</v>
       </c>
-      <c r="F3" s="4"/>
-      <c r="G3" s="4"/>
+      <c r="F3">
+        <v>3</v>
+      </c>
+      <c r="G3" s="17">
+        <v>3</v>
+      </c>
       <c r="H3" s="4"/>
       <c r="I3" s="4"/>
       <c r="J3" s="4"/>
@@ -790,8 +848,12 @@
       <c r="E4" s="11">
         <v>107</v>
       </c>
-      <c r="F4" s="4"/>
-      <c r="G4" s="4"/>
+      <c r="F4" s="10">
+        <v>45</v>
+      </c>
+      <c r="G4" s="15">
+        <v>42</v>
+      </c>
       <c r="H4" s="4"/>
       <c r="I4" s="4"/>
       <c r="J4" s="4"/>
@@ -816,8 +878,12 @@
       <c r="E5" s="12">
         <v>28</v>
       </c>
-      <c r="F5" s="4"/>
-      <c r="G5" s="4"/>
+      <c r="F5" s="10">
+        <v>19</v>
+      </c>
+      <c r="G5" s="16">
+        <v>21</v>
+      </c>
       <c r="H5" s="4"/>
       <c r="I5" s="4"/>
       <c r="J5" s="4"/>
@@ -842,8 +908,12 @@
       <c r="E6" s="11">
         <v>2</v>
       </c>
-      <c r="F6" s="4"/>
-      <c r="G6" s="4"/>
+      <c r="F6">
+        <v>2</v>
+      </c>
+      <c r="G6" s="16">
+        <v>4</v>
+      </c>
       <c r="H6" s="4"/>
       <c r="I6" s="4"/>
       <c r="J6" s="4"/>
@@ -868,8 +938,12 @@
       <c r="E7" s="11">
         <v>7</v>
       </c>
-      <c r="F7" s="4"/>
-      <c r="G7" s="4"/>
+      <c r="F7">
+        <v>7</v>
+      </c>
+      <c r="G7" s="16">
+        <v>9</v>
+      </c>
       <c r="H7" s="4"/>
       <c r="I7" s="4"/>
       <c r="J7" s="4"/>
@@ -894,8 +968,12 @@
       <c r="E8" s="11">
         <v>10</v>
       </c>
-      <c r="F8" s="4"/>
-      <c r="G8" s="4"/>
+      <c r="F8">
+        <v>10</v>
+      </c>
+      <c r="G8" s="17">
+        <v>10</v>
+      </c>
       <c r="H8" s="4"/>
       <c r="I8" s="4"/>
       <c r="J8" s="4"/>
@@ -920,8 +998,12 @@
       <c r="E9" s="11">
         <v>157</v>
       </c>
-      <c r="F9" s="4"/>
-      <c r="G9" s="4"/>
+      <c r="F9" s="10">
+        <v>148</v>
+      </c>
+      <c r="G9" s="15">
+        <v>74</v>
+      </c>
       <c r="H9" s="4"/>
       <c r="I9" s="4"/>
       <c r="J9" s="4"/>
@@ -946,8 +1028,12 @@
       <c r="E10" s="11">
         <v>159</v>
       </c>
-      <c r="F10" s="4"/>
-      <c r="G10" s="4"/>
+      <c r="F10" s="10">
+        <v>133</v>
+      </c>
+      <c r="G10" s="15">
+        <v>79</v>
+      </c>
       <c r="H10" s="4"/>
       <c r="I10" s="4"/>
       <c r="J10" s="4"/>
@@ -972,8 +1058,12 @@
       <c r="E11" s="11">
         <v>1143</v>
       </c>
-      <c r="F11" s="4"/>
-      <c r="G11" s="4"/>
+      <c r="F11" s="10">
+        <v>1013</v>
+      </c>
+      <c r="G11" s="15">
+        <v>385</v>
+      </c>
       <c r="H11" s="4"/>
       <c r="I11" s="4"/>
       <c r="J11" s="4"/>
@@ -998,8 +1088,12 @@
       <c r="E12" s="11">
         <v>72</v>
       </c>
-      <c r="F12" s="4"/>
-      <c r="G12" s="4"/>
+      <c r="F12" s="10">
+        <v>62</v>
+      </c>
+      <c r="G12" s="15">
+        <v>58</v>
+      </c>
       <c r="H12" s="4"/>
       <c r="I12" s="4"/>
       <c r="J12" s="4"/>
@@ -1024,8 +1118,12 @@
       <c r="E13" s="11">
         <v>1749</v>
       </c>
-      <c r="F13" s="4"/>
-      <c r="G13" s="4"/>
+      <c r="F13" s="10">
+        <v>1517</v>
+      </c>
+      <c r="G13" s="15">
+        <v>1213</v>
+      </c>
       <c r="H13" s="4"/>
       <c r="I13" s="4"/>
       <c r="J13" s="4"/>
@@ -1050,8 +1148,12 @@
       <c r="E14" s="11">
         <v>76</v>
       </c>
-      <c r="F14" s="4"/>
-      <c r="G14" s="4"/>
+      <c r="F14" s="7">
+        <v>87</v>
+      </c>
+      <c r="G14" s="15">
+        <v>33</v>
+      </c>
       <c r="H14" s="4"/>
       <c r="I14" s="4"/>
       <c r="J14" s="4"/>
@@ -1076,8 +1178,12 @@
       <c r="E15" s="11">
         <v>23</v>
       </c>
-      <c r="F15" s="4"/>
-      <c r="G15" s="4"/>
+      <c r="F15" s="7">
+        <v>50</v>
+      </c>
+      <c r="G15" s="16">
+        <v>71</v>
+      </c>
       <c r="H15" s="4"/>
       <c r="I15" s="4"/>
       <c r="J15" s="4"/>
@@ -1102,8 +1208,12 @@
       <c r="E16" s="11">
         <v>38</v>
       </c>
-      <c r="F16" s="4"/>
-      <c r="G16" s="4"/>
+      <c r="F16" s="7">
+        <v>71</v>
+      </c>
+      <c r="G16" s="15">
+        <v>49</v>
+      </c>
       <c r="H16" s="4"/>
       <c r="I16" s="4"/>
       <c r="J16" s="4"/>
@@ -1128,8 +1238,12 @@
       <c r="E17" s="11">
         <v>38</v>
       </c>
-      <c r="F17" s="4"/>
-      <c r="G17" s="4"/>
+      <c r="F17" s="7">
+        <v>54</v>
+      </c>
+      <c r="G17" s="15">
+        <v>50</v>
+      </c>
       <c r="H17" s="4"/>
       <c r="I17" s="4"/>
       <c r="J17" s="4"/>
@@ -1154,8 +1268,12 @@
       <c r="E18" s="11">
         <v>24</v>
       </c>
-      <c r="F18" s="4"/>
-      <c r="G18" s="4"/>
+      <c r="F18" s="7">
+        <v>74</v>
+      </c>
+      <c r="G18" s="15">
+        <v>56</v>
+      </c>
       <c r="H18" s="4"/>
       <c r="I18" s="4"/>
       <c r="J18" s="4"/>
@@ -1180,8 +1298,12 @@
       <c r="E19" s="11">
         <v>148</v>
       </c>
-      <c r="F19" s="4"/>
-      <c r="G19" s="4"/>
+      <c r="F19" s="10">
+        <v>68</v>
+      </c>
+      <c r="G19" s="16">
+        <v>191</v>
+      </c>
       <c r="H19" s="4"/>
       <c r="I19" s="4"/>
       <c r="J19" s="4"/>
@@ -1206,8 +1328,12 @@
       <c r="E20" s="11">
         <v>392</v>
       </c>
-      <c r="F20" s="4"/>
-      <c r="G20" s="4"/>
+      <c r="F20" s="10">
+        <v>261</v>
+      </c>
+      <c r="G20" s="15">
+        <v>96</v>
+      </c>
       <c r="H20" s="4"/>
       <c r="I20" s="4"/>
       <c r="J20" s="4"/>
@@ -1232,8 +1358,12 @@
       <c r="E21" s="11">
         <v>409</v>
       </c>
-      <c r="F21" s="4"/>
-      <c r="G21" s="4"/>
+      <c r="F21" s="10">
+        <v>208</v>
+      </c>
+      <c r="G21" s="16">
+        <v>253</v>
+      </c>
       <c r="H21" s="4"/>
       <c r="I21" s="4"/>
       <c r="J21" s="4"/>
@@ -1258,8 +1388,12 @@
       <c r="E22" s="11">
         <v>399</v>
       </c>
-      <c r="F22" s="4"/>
-      <c r="G22" s="4"/>
+      <c r="F22" s="10">
+        <v>292</v>
+      </c>
+      <c r="G22" s="15">
+        <v>176</v>
+      </c>
       <c r="H22" s="4"/>
       <c r="I22" s="4"/>
       <c r="J22" s="4"/>
@@ -1284,8 +1418,12 @@
       <c r="E23" s="11">
         <v>321</v>
       </c>
-      <c r="F23" s="4"/>
-      <c r="G23" s="4"/>
+      <c r="F23" s="10">
+        <v>291</v>
+      </c>
+      <c r="G23" s="15">
+        <v>270</v>
+      </c>
       <c r="H23" s="4"/>
       <c r="I23" s="4"/>
       <c r="J23" s="4"/>
@@ -1310,8 +1448,12 @@
       <c r="E24" s="11">
         <v>265</v>
       </c>
-      <c r="F24" s="4"/>
-      <c r="G24" s="4"/>
+      <c r="F24" s="10">
+        <v>234</v>
+      </c>
+      <c r="G24" s="15">
+        <v>118</v>
+      </c>
       <c r="H24" s="4"/>
       <c r="I24" s="4"/>
       <c r="J24" s="4"/>
@@ -1336,8 +1478,12 @@
       <c r="E25" s="11">
         <v>231</v>
       </c>
-      <c r="F25" s="4"/>
-      <c r="G25" s="4"/>
+      <c r="F25" s="10">
+        <v>211</v>
+      </c>
+      <c r="G25" s="15">
+        <v>119</v>
+      </c>
       <c r="H25" s="4"/>
       <c r="I25" s="4"/>
       <c r="J25" s="4"/>
@@ -1362,8 +1508,12 @@
       <c r="E26" s="11">
         <v>67</v>
       </c>
-      <c r="F26" s="4"/>
-      <c r="G26" s="4"/>
+      <c r="F26" s="7">
+        <v>87</v>
+      </c>
+      <c r="G26" s="16">
+        <v>89</v>
+      </c>
       <c r="H26" s="4"/>
       <c r="I26" s="4"/>
       <c r="J26" s="4"/>
@@ -1388,8 +1538,12 @@
       <c r="E27" s="11">
         <v>73</v>
       </c>
-      <c r="F27" s="4"/>
-      <c r="G27" s="4"/>
+      <c r="F27" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="G27" s="15">
+        <v>33</v>
+      </c>
       <c r="H27" s="4"/>
       <c r="I27" s="4"/>
       <c r="J27" s="4"/>
@@ -1414,8 +1568,12 @@
       <c r="E28" s="11">
         <v>16</v>
       </c>
-      <c r="F28" s="4"/>
-      <c r="G28" s="4"/>
+      <c r="F28">
+        <v>16</v>
+      </c>
+      <c r="G28" s="16">
+        <v>38</v>
+      </c>
       <c r="H28" s="4"/>
       <c r="I28" s="4"/>
       <c r="J28" s="4"/>
@@ -1440,8 +1598,12 @@
       <c r="E29" s="11">
         <v>19</v>
       </c>
-      <c r="F29" s="4"/>
-      <c r="G29" s="4"/>
+      <c r="F29" s="10">
+        <v>15</v>
+      </c>
+      <c r="G29" s="15">
+        <v>13</v>
+      </c>
       <c r="H29" s="4"/>
       <c r="I29" s="4"/>
       <c r="J29" s="4"/>
@@ -1466,6 +1628,12 @@
       <c r="E30" s="11">
         <v>19</v>
       </c>
+      <c r="F30" s="10">
+        <v>17</v>
+      </c>
+      <c r="G30" s="15">
+        <v>13</v>
+      </c>
       <c r="L30" s="4"/>
       <c r="M30" s="4"/>
       <c r="N30" s="5"/>
@@ -1487,6 +1655,12 @@
       <c r="E31" s="11">
         <v>21</v>
       </c>
+      <c r="F31" s="10">
+        <v>13</v>
+      </c>
+      <c r="G31" s="16">
+        <v>15</v>
+      </c>
       <c r="L31" s="4"/>
       <c r="M31" s="4"/>
       <c r="P31" s="4"/>
@@ -1507,6 +1681,12 @@
       </c>
       <c r="E32" s="11">
         <v>21</v>
+      </c>
+      <c r="F32" s="10">
+        <v>13</v>
+      </c>
+      <c r="G32" s="16">
+        <v>15</v>
       </c>
       <c r="L32" s="4"/>
       <c r="M32" s="4"/>
@@ -1537,6 +1717,12 @@
       <c r="E33" s="11">
         <v>19</v>
       </c>
+      <c r="F33" s="10">
+        <v>15</v>
+      </c>
+      <c r="G33" s="16">
+        <v>17</v>
+      </c>
       <c r="L33" s="4"/>
       <c r="M33" s="4"/>
       <c r="P33" s="4"/>
@@ -1558,6 +1744,12 @@
       <c r="E34" s="11">
         <v>19</v>
       </c>
+      <c r="F34" s="10">
+        <v>15</v>
+      </c>
+      <c r="G34" s="16">
+        <v>17</v>
+      </c>
       <c r="L34" s="4"/>
       <c r="M34" s="4"/>
       <c r="P34" s="4"/>
@@ -1576,6 +1768,12 @@
         <v>20</v>
       </c>
       <c r="E35" s="11">
+        <v>20</v>
+      </c>
+      <c r="F35">
+        <v>20</v>
+      </c>
+      <c r="G35" s="17">
         <v>20</v>
       </c>
       <c r="L35" s="4"/>
@@ -1600,6 +1798,12 @@
       <c r="E36" s="11">
         <v>5</v>
       </c>
+      <c r="F36">
+        <v>5</v>
+      </c>
+      <c r="G36" s="17">
+        <v>5</v>
+      </c>
       <c r="L36" s="4"/>
       <c r="M36" s="4"/>
       <c r="P36" s="4"/>
@@ -1621,6 +1825,12 @@
       <c r="E37" s="12">
         <v>9</v>
       </c>
+      <c r="F37">
+        <v>9</v>
+      </c>
+      <c r="G37" s="17">
+        <v>9</v>
+      </c>
       <c r="L37" s="4"/>
       <c r="M37" s="4"/>
       <c r="P37" s="4"/>
@@ -1642,6 +1852,12 @@
       <c r="E38" s="12">
         <v>16</v>
       </c>
+      <c r="F38" s="10">
+        <v>9</v>
+      </c>
+      <c r="G38" s="17">
+        <v>9</v>
+      </c>
       <c r="L38" s="4"/>
       <c r="M38" s="4"/>
       <c r="R38" s="4"/>
@@ -1662,8 +1878,12 @@
       <c r="E39" s="11">
         <v>36</v>
       </c>
-      <c r="F39" s="4"/>
-      <c r="G39" s="4"/>
+      <c r="F39" s="10">
+        <v>25</v>
+      </c>
+      <c r="G39" s="16">
+        <v>30</v>
+      </c>
       <c r="H39" s="4"/>
       <c r="I39" s="4"/>
       <c r="J39" s="4"/>
@@ -1689,8 +1909,12 @@
       <c r="E40" s="11">
         <v>15</v>
       </c>
-      <c r="F40" s="4"/>
-      <c r="G40" s="4"/>
+      <c r="F40">
+        <v>15</v>
+      </c>
+      <c r="G40" s="17">
+        <v>15</v>
+      </c>
       <c r="H40" s="4"/>
       <c r="I40" s="4"/>
       <c r="J40" s="4"/>
@@ -1713,6 +1937,12 @@
       </c>
       <c r="E41" s="11">
         <v>12</v>
+      </c>
+      <c r="F41">
+        <v>12</v>
+      </c>
+      <c r="G41" s="16">
+        <v>24</v>
       </c>
       <c r="L41" s="4"/>
       <c r="M41" s="4"/>
@@ -1726,8 +1956,6 @@
     <row r="42" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A42" s="4"/>
       <c r="B42" s="4"/>
-      <c r="F42" s="4"/>
-      <c r="G42" s="4"/>
       <c r="H42" s="4"/>
       <c r="I42" s="4"/>
       <c r="J42" s="4"/>
@@ -1739,8 +1967,7 @@
     <row r="43" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A43" s="4"/>
       <c r="B43" s="4"/>
-      <c r="F43" s="4"/>
-      <c r="G43" s="4"/>
+      <c r="F43" s="14"/>
       <c r="H43" s="4"/>
       <c r="I43" s="4"/>
       <c r="J43" s="4"/>
@@ -1750,8 +1977,7 @@
     <row r="44" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A44" s="4"/>
       <c r="B44" s="4"/>
-      <c r="F44" s="4"/>
-      <c r="G44" s="4"/>
+      <c r="G44" s="14"/>
       <c r="H44" s="4"/>
       <c r="I44" s="4"/>
       <c r="J44" s="4"/>
@@ -1778,8 +2004,14 @@
         <f>SUM(E2:E41)</f>
         <v>6192</v>
       </c>
-      <c r="F45" s="4"/>
-      <c r="G45" s="4"/>
+      <c r="F45" s="9">
+        <f>SUM(F2:F41)</f>
+        <v>5150</v>
+      </c>
+      <c r="G45" s="9">
+        <f>SUM(G2:G41)</f>
+        <v>3746</v>
+      </c>
       <c r="H45" s="4"/>
       <c r="I45" s="4"/>
       <c r="J45" s="4"/>
@@ -1789,8 +2021,6 @@
     <row r="46" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A46" s="4"/>
       <c r="B46" s="4"/>
-      <c r="F46" s="4"/>
-      <c r="G46" s="4"/>
       <c r="H46" s="4"/>
       <c r="I46" s="4"/>
       <c r="J46" s="4"/>
@@ -1813,8 +2043,12 @@
       <c r="E47" t="s">
         <v>48</v>
       </c>
-      <c r="F47" s="4"/>
-      <c r="G47" s="4"/>
+      <c r="F47" t="s">
+        <v>50</v>
+      </c>
+      <c r="G47" t="s">
+        <v>54</v>
+      </c>
       <c r="H47" s="4"/>
       <c r="I47" s="4"/>
       <c r="J47" s="4"/>
@@ -1830,8 +2064,12 @@
       <c r="E48" t="s">
         <v>49</v>
       </c>
-      <c r="F48" s="4"/>
-      <c r="G48" s="4"/>
+      <c r="F48" t="s">
+        <v>51</v>
+      </c>
+      <c r="G48" t="s">
+        <v>53</v>
+      </c>
       <c r="H48" s="4"/>
       <c r="I48" s="4"/>
       <c r="J48" s="4"/>
@@ -1846,8 +2084,12 @@
       <c r="D49" t="s">
         <v>46</v>
       </c>
-      <c r="F49" s="4"/>
-      <c r="G49" s="4"/>
+      <c r="F49" t="s">
+        <v>52</v>
+      </c>
+      <c r="G49" t="s">
+        <v>55</v>
+      </c>
       <c r="H49" s="4"/>
       <c r="I49" s="4"/>
       <c r="J49" s="4"/>
@@ -1857,8 +2099,9 @@
     <row r="50" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A50" s="4"/>
       <c r="B50" s="4"/>
-      <c r="F50" s="4"/>
-      <c r="G50" s="4"/>
+      <c r="G50" t="s">
+        <v>56</v>
+      </c>
       <c r="H50" s="4"/>
       <c r="I50" s="4"/>
       <c r="J50" s="4"/>
@@ -1870,9 +2113,9 @@
     <row r="51" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A51" s="4"/>
       <c r="B51" s="4"/>
-      <c r="F51" s="4"/>
-      <c r="G51" s="4"/>
-      <c r="H51" s="4"/>
+      <c r="G51" t="s">
+        <v>57</v>
+      </c>
       <c r="I51" s="4"/>
       <c r="J51" s="4"/>
       <c r="P51" s="4"/>
@@ -1881,9 +2124,9 @@
     <row r="52" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A52" s="4"/>
       <c r="B52" s="4"/>
-      <c r="F52" s="4"/>
-      <c r="G52" s="4"/>
-      <c r="H52" s="4"/>
+      <c r="G52" t="s">
+        <v>58</v>
+      </c>
       <c r="I52" s="4"/>
       <c r="J52" s="4"/>
       <c r="L52" s="5"/>
@@ -1894,9 +2137,9 @@
     <row r="53" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A53" s="4"/>
       <c r="B53" s="4"/>
-      <c r="F53" s="4"/>
-      <c r="G53" s="4"/>
-      <c r="H53" s="4"/>
+      <c r="G53" t="s">
+        <v>59</v>
+      </c>
       <c r="I53" s="4"/>
       <c r="J53" s="4"/>
       <c r="P53" s="4"/>
@@ -1904,9 +2147,9 @@
     </row>
     <row r="54" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A54" s="4"/>
-      <c r="F54" s="4"/>
-      <c r="G54" s="4"/>
-      <c r="H54" s="4"/>
+      <c r="G54" t="s">
+        <v>60</v>
+      </c>
       <c r="I54" s="4"/>
       <c r="J54" s="4"/>
       <c r="K54" s="4"/>
@@ -1918,9 +2161,6 @@
     <row r="55" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A55" s="4"/>
       <c r="B55" s="4"/>
-      <c r="F55" s="4"/>
-      <c r="G55" s="4"/>
-      <c r="H55" s="4"/>
       <c r="I55" s="4"/>
       <c r="J55" s="4"/>
       <c r="K55" s="4"/>
@@ -1928,25 +2168,16 @@
       <c r="V55" s="5"/>
     </row>
     <row r="56" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="F56" s="4"/>
-      <c r="G56" s="4"/>
-      <c r="H56" s="4"/>
       <c r="I56" s="4"/>
       <c r="J56" s="4"/>
       <c r="K56" s="4"/>
     </row>
     <row r="57" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="F57" s="4"/>
-      <c r="G57" s="4"/>
-      <c r="H57" s="4"/>
       <c r="I57" s="4"/>
       <c r="J57" s="4"/>
       <c r="K57" s="4"/>
     </row>
     <row r="58" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="F58" s="4"/>
-      <c r="G58" s="4"/>
-      <c r="H58" s="4"/>
       <c r="I58" s="4"/>
       <c r="J58" s="4"/>
       <c r="K58" s="4"/>

--- a/Information/Изменение результатов.xlsx
+++ b/Information/Изменение результатов.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\1\Desktop\MAPF_System_2\Information\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0DBD3264-8E83-4600-B5FA-A7434C381AC9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52DE526A-4C2B-4401-95DB-6CD5C6B20FEF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="599" xr2:uid="{0BBE610F-FD71-401D-9DCE-6AF9F6A4B4C0}"/>
   </bookViews>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="64">
   <si>
     <t>Имя файла</t>
   </si>
@@ -224,6 +224,15 @@
   </si>
   <si>
     <t>при достижении цели</t>
+  </si>
+  <si>
+    <t xml:space="preserve">клетка перед входом в </t>
+  </si>
+  <si>
+    <t>туннель не учитывает</t>
+  </si>
+  <si>
+    <t>сколько раз была посещена</t>
   </si>
 </sst>
 </file>
@@ -725,7 +734,7 @@
   <dimension ref="A1:W58"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A26" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="H41" sqref="H41"/>
+      <selection activeCell="H50" sqref="H50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -734,10 +743,10 @@
     <col min="2" max="2" width="17.5703125" style="2" customWidth="1"/>
     <col min="3" max="3" width="31.5703125" customWidth="1"/>
     <col min="4" max="4" width="36" customWidth="1"/>
-    <col min="5" max="5" width="21.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="26.140625" customWidth="1"/>
+    <col min="5" max="5" width="20" customWidth="1"/>
+    <col min="6" max="6" width="22.140625" customWidth="1"/>
     <col min="7" max="7" width="26" customWidth="1"/>
-    <col min="8" max="8" width="16.28515625" style="2" customWidth="1"/>
+    <col min="8" max="8" width="24" customWidth="1"/>
     <col min="9" max="9" width="9.140625" style="2"/>
     <col min="10" max="10" width="9.7109375" style="2" customWidth="1"/>
     <col min="11" max="15" width="9.140625" style="2"/>
@@ -767,6 +776,9 @@
       <c r="G1" t="s">
         <v>1</v>
       </c>
+      <c r="H1" t="s">
+        <v>1</v>
+      </c>
       <c r="N1" s="3"/>
       <c r="O1" s="3"/>
       <c r="V1" s="3"/>
@@ -794,7 +806,9 @@
       <c r="G2" s="17">
         <v>4</v>
       </c>
-      <c r="H2" s="4"/>
+      <c r="H2">
+        <v>4</v>
+      </c>
       <c r="I2" s="4"/>
       <c r="J2" s="4"/>
       <c r="L2" s="4"/>
@@ -824,7 +838,9 @@
       <c r="G3" s="17">
         <v>3</v>
       </c>
-      <c r="H3" s="4"/>
+      <c r="H3">
+        <v>3</v>
+      </c>
       <c r="I3" s="4"/>
       <c r="J3" s="4"/>
       <c r="L3" s="4"/>
@@ -854,7 +870,9 @@
       <c r="G4" s="15">
         <v>42</v>
       </c>
-      <c r="H4" s="4"/>
+      <c r="H4">
+        <v>42</v>
+      </c>
       <c r="I4" s="4"/>
       <c r="J4" s="4"/>
       <c r="L4" s="4"/>
@@ -884,7 +902,9 @@
       <c r="G5" s="16">
         <v>21</v>
       </c>
-      <c r="H5" s="4"/>
+      <c r="H5" s="10">
+        <v>20</v>
+      </c>
       <c r="I5" s="4"/>
       <c r="J5" s="4"/>
       <c r="L5" s="4"/>
@@ -914,7 +934,9 @@
       <c r="G6" s="16">
         <v>4</v>
       </c>
-      <c r="H6" s="4"/>
+      <c r="H6">
+        <v>4</v>
+      </c>
       <c r="I6" s="4"/>
       <c r="J6" s="4"/>
       <c r="L6" s="4"/>
@@ -944,7 +966,9 @@
       <c r="G7" s="16">
         <v>9</v>
       </c>
-      <c r="H7" s="4"/>
+      <c r="H7">
+        <v>9</v>
+      </c>
       <c r="I7" s="4"/>
       <c r="J7" s="4"/>
       <c r="L7" s="4"/>
@@ -974,7 +998,9 @@
       <c r="G8" s="17">
         <v>10</v>
       </c>
-      <c r="H8" s="4"/>
+      <c r="H8">
+        <v>10</v>
+      </c>
       <c r="I8" s="4"/>
       <c r="J8" s="4"/>
       <c r="L8" s="4"/>
@@ -1004,7 +1030,9 @@
       <c r="G9" s="15">
         <v>74</v>
       </c>
-      <c r="H9" s="4"/>
+      <c r="H9">
+        <v>74</v>
+      </c>
       <c r="I9" s="4"/>
       <c r="J9" s="4"/>
       <c r="L9" s="4"/>
@@ -1034,7 +1062,9 @@
       <c r="G10" s="15">
         <v>79</v>
       </c>
-      <c r="H10" s="4"/>
+      <c r="H10">
+        <v>79</v>
+      </c>
       <c r="I10" s="4"/>
       <c r="J10" s="4"/>
       <c r="L10" s="4"/>
@@ -1064,7 +1094,9 @@
       <c r="G11" s="15">
         <v>385</v>
       </c>
-      <c r="H11" s="4"/>
+      <c r="H11">
+        <v>385</v>
+      </c>
       <c r="I11" s="4"/>
       <c r="J11" s="4"/>
       <c r="L11" s="4"/>
@@ -1094,7 +1126,9 @@
       <c r="G12" s="15">
         <v>58</v>
       </c>
-      <c r="H12" s="4"/>
+      <c r="H12">
+        <v>58</v>
+      </c>
       <c r="I12" s="4"/>
       <c r="J12" s="4"/>
       <c r="L12" s="4"/>
@@ -1124,7 +1158,9 @@
       <c r="G13" s="15">
         <v>1213</v>
       </c>
-      <c r="H13" s="4"/>
+      <c r="H13">
+        <v>1213</v>
+      </c>
       <c r="I13" s="4"/>
       <c r="J13" s="4"/>
       <c r="L13" s="4"/>
@@ -1154,7 +1190,9 @@
       <c r="G14" s="15">
         <v>33</v>
       </c>
-      <c r="H14" s="4"/>
+      <c r="H14">
+        <v>33</v>
+      </c>
       <c r="I14" s="4"/>
       <c r="J14" s="4"/>
       <c r="L14" s="4"/>
@@ -1184,7 +1222,9 @@
       <c r="G15" s="16">
         <v>71</v>
       </c>
-      <c r="H15" s="4"/>
+      <c r="H15">
+        <v>71</v>
+      </c>
       <c r="I15" s="4"/>
       <c r="J15" s="4"/>
       <c r="L15" s="4"/>
@@ -1214,7 +1254,9 @@
       <c r="G16" s="15">
         <v>49</v>
       </c>
-      <c r="H16" s="4"/>
+      <c r="H16">
+        <v>49</v>
+      </c>
       <c r="I16" s="4"/>
       <c r="J16" s="4"/>
       <c r="L16" s="4"/>
@@ -1244,7 +1286,9 @@
       <c r="G17" s="15">
         <v>50</v>
       </c>
-      <c r="H17" s="4"/>
+      <c r="H17">
+        <v>50</v>
+      </c>
       <c r="I17" s="4"/>
       <c r="J17" s="4"/>
       <c r="L17" s="4"/>
@@ -1274,7 +1318,9 @@
       <c r="G18" s="15">
         <v>56</v>
       </c>
-      <c r="H18" s="4"/>
+      <c r="H18">
+        <v>56</v>
+      </c>
       <c r="I18" s="4"/>
       <c r="J18" s="4"/>
       <c r="L18" s="4"/>
@@ -1304,7 +1350,9 @@
       <c r="G19" s="16">
         <v>191</v>
       </c>
-      <c r="H19" s="4"/>
+      <c r="H19">
+        <v>191</v>
+      </c>
       <c r="I19" s="4"/>
       <c r="J19" s="4"/>
       <c r="L19" s="4"/>
@@ -1334,7 +1382,9 @@
       <c r="G20" s="15">
         <v>96</v>
       </c>
-      <c r="H20" s="4"/>
+      <c r="H20">
+        <v>96</v>
+      </c>
       <c r="I20" s="4"/>
       <c r="J20" s="4"/>
       <c r="L20" s="4"/>
@@ -1364,7 +1414,9 @@
       <c r="G21" s="16">
         <v>253</v>
       </c>
-      <c r="H21" s="4"/>
+      <c r="H21">
+        <v>253</v>
+      </c>
       <c r="I21" s="4"/>
       <c r="J21" s="4"/>
       <c r="L21" s="4"/>
@@ -1394,7 +1446,9 @@
       <c r="G22" s="15">
         <v>176</v>
       </c>
-      <c r="H22" s="4"/>
+      <c r="H22">
+        <v>176</v>
+      </c>
       <c r="I22" s="4"/>
       <c r="J22" s="4"/>
       <c r="L22" s="4"/>
@@ -1424,7 +1478,9 @@
       <c r="G23" s="15">
         <v>270</v>
       </c>
-      <c r="H23" s="4"/>
+      <c r="H23" s="10">
+        <v>137</v>
+      </c>
       <c r="I23" s="4"/>
       <c r="J23" s="4"/>
       <c r="L23" s="4"/>
@@ -1454,7 +1510,9 @@
       <c r="G24" s="15">
         <v>118</v>
       </c>
-      <c r="H24" s="4"/>
+      <c r="H24">
+        <v>118</v>
+      </c>
       <c r="I24" s="4"/>
       <c r="J24" s="4"/>
       <c r="L24" s="4"/>
@@ -1484,7 +1542,9 @@
       <c r="G25" s="15">
         <v>119</v>
       </c>
-      <c r="H25" s="4"/>
+      <c r="H25">
+        <v>119</v>
+      </c>
       <c r="I25" s="4"/>
       <c r="J25" s="4"/>
       <c r="L25" s="4"/>
@@ -1514,7 +1574,9 @@
       <c r="G26" s="16">
         <v>89</v>
       </c>
-      <c r="H26" s="4"/>
+      <c r="H26">
+        <v>89</v>
+      </c>
       <c r="I26" s="4"/>
       <c r="J26" s="4"/>
       <c r="L26" s="4"/>
@@ -1544,7 +1606,9 @@
       <c r="G27" s="15">
         <v>33</v>
       </c>
-      <c r="H27" s="4"/>
+      <c r="H27">
+        <v>33</v>
+      </c>
       <c r="I27" s="4"/>
       <c r="J27" s="4"/>
       <c r="L27" s="4"/>
@@ -1574,7 +1638,9 @@
       <c r="G28" s="16">
         <v>38</v>
       </c>
-      <c r="H28" s="4"/>
+      <c r="H28">
+        <v>38</v>
+      </c>
       <c r="I28" s="4"/>
       <c r="J28" s="4"/>
       <c r="L28" s="4"/>
@@ -1604,7 +1670,9 @@
       <c r="G29" s="15">
         <v>13</v>
       </c>
-      <c r="H29" s="4"/>
+      <c r="H29">
+        <v>13</v>
+      </c>
       <c r="I29" s="4"/>
       <c r="J29" s="4"/>
       <c r="L29" s="4"/>
@@ -1634,6 +1702,9 @@
       <c r="G30" s="15">
         <v>13</v>
       </c>
+      <c r="H30">
+        <v>13</v>
+      </c>
       <c r="L30" s="4"/>
       <c r="M30" s="4"/>
       <c r="N30" s="5"/>
@@ -1661,6 +1732,9 @@
       <c r="G31" s="16">
         <v>15</v>
       </c>
+      <c r="H31">
+        <v>15</v>
+      </c>
       <c r="L31" s="4"/>
       <c r="M31" s="4"/>
       <c r="P31" s="4"/>
@@ -1686,6 +1760,9 @@
         <v>13</v>
       </c>
       <c r="G32" s="16">
+        <v>15</v>
+      </c>
+      <c r="H32">
         <v>15</v>
       </c>
       <c r="L32" s="4"/>
@@ -1723,6 +1800,9 @@
       <c r="G33" s="16">
         <v>17</v>
       </c>
+      <c r="H33">
+        <v>17</v>
+      </c>
       <c r="L33" s="4"/>
       <c r="M33" s="4"/>
       <c r="P33" s="4"/>
@@ -1750,6 +1830,9 @@
       <c r="G34" s="16">
         <v>17</v>
       </c>
+      <c r="H34">
+        <v>17</v>
+      </c>
       <c r="L34" s="4"/>
       <c r="M34" s="4"/>
       <c r="P34" s="4"/>
@@ -1774,6 +1857,9 @@
         <v>20</v>
       </c>
       <c r="G35" s="17">
+        <v>20</v>
+      </c>
+      <c r="H35">
         <v>20</v>
       </c>
       <c r="L35" s="4"/>
@@ -1804,6 +1890,9 @@
       <c r="G36" s="17">
         <v>5</v>
       </c>
+      <c r="H36">
+        <v>5</v>
+      </c>
       <c r="L36" s="4"/>
       <c r="M36" s="4"/>
       <c r="P36" s="4"/>
@@ -1831,6 +1920,9 @@
       <c r="G37" s="17">
         <v>9</v>
       </c>
+      <c r="H37">
+        <v>9</v>
+      </c>
       <c r="L37" s="4"/>
       <c r="M37" s="4"/>
       <c r="P37" s="4"/>
@@ -1858,6 +1950,9 @@
       <c r="G38" s="17">
         <v>9</v>
       </c>
+      <c r="H38">
+        <v>9</v>
+      </c>
       <c r="L38" s="4"/>
       <c r="M38" s="4"/>
       <c r="R38" s="4"/>
@@ -1884,7 +1979,9 @@
       <c r="G39" s="16">
         <v>30</v>
       </c>
-      <c r="H39" s="4"/>
+      <c r="H39">
+        <v>30</v>
+      </c>
       <c r="I39" s="4"/>
       <c r="J39" s="4"/>
       <c r="L39" s="4"/>
@@ -1915,7 +2012,9 @@
       <c r="G40" s="17">
         <v>15</v>
       </c>
-      <c r="H40" s="4"/>
+      <c r="H40">
+        <v>15</v>
+      </c>
       <c r="I40" s="4"/>
       <c r="J40" s="4"/>
       <c r="L40" s="4"/>
@@ -1942,6 +2041,9 @@
         <v>12</v>
       </c>
       <c r="G41" s="16">
+        <v>24</v>
+      </c>
+      <c r="H41">
         <v>24</v>
       </c>
       <c r="L41" s="4"/>
@@ -1956,7 +2058,6 @@
     <row r="42" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A42" s="4"/>
       <c r="B42" s="4"/>
-      <c r="H42" s="4"/>
       <c r="I42" s="4"/>
       <c r="J42" s="4"/>
       <c r="L42" s="5"/>
@@ -1968,7 +2069,6 @@
       <c r="A43" s="4"/>
       <c r="B43" s="4"/>
       <c r="F43" s="14"/>
-      <c r="H43" s="4"/>
       <c r="I43" s="4"/>
       <c r="J43" s="4"/>
       <c r="P43" s="4"/>
@@ -1978,7 +2078,6 @@
       <c r="A44" s="4"/>
       <c r="B44" s="4"/>
       <c r="G44" s="14"/>
-      <c r="H44" s="4"/>
       <c r="I44" s="4"/>
       <c r="J44" s="4"/>
       <c r="L44" s="5"/>
@@ -2012,7 +2111,10 @@
         <f>SUM(G2:G41)</f>
         <v>3746</v>
       </c>
-      <c r="H45" s="4"/>
+      <c r="H45" s="9">
+        <f>SUM(H2:H41)</f>
+        <v>3612</v>
+      </c>
       <c r="I45" s="4"/>
       <c r="J45" s="4"/>
       <c r="P45" s="4"/>
@@ -2021,7 +2123,6 @@
     <row r="46" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A46" s="4"/>
       <c r="B46" s="4"/>
-      <c r="H46" s="4"/>
       <c r="I46" s="4"/>
       <c r="J46" s="4"/>
       <c r="L46" s="5"/>
@@ -2049,7 +2150,9 @@
       <c r="G47" t="s">
         <v>54</v>
       </c>
-      <c r="H47" s="4"/>
+      <c r="H47" t="s">
+        <v>61</v>
+      </c>
       <c r="I47" s="4"/>
       <c r="J47" s="4"/>
       <c r="P47" s="4"/>
@@ -2070,7 +2173,9 @@
       <c r="G48" t="s">
         <v>53</v>
       </c>
-      <c r="H48" s="4"/>
+      <c r="H48" t="s">
+        <v>62</v>
+      </c>
       <c r="I48" s="4"/>
       <c r="J48" s="4"/>
       <c r="L48" s="5"/>
@@ -2090,7 +2195,9 @@
       <c r="G49" t="s">
         <v>55</v>
       </c>
-      <c r="H49" s="4"/>
+      <c r="H49" t="s">
+        <v>63</v>
+      </c>
       <c r="I49" s="4"/>
       <c r="J49" s="4"/>
       <c r="P49" s="4"/>
@@ -2102,7 +2209,6 @@
       <c r="G50" t="s">
         <v>56</v>
       </c>
-      <c r="H50" s="4"/>
       <c r="I50" s="4"/>
       <c r="J50" s="4"/>
       <c r="L50" s="5"/>

--- a/Information/Изменение результатов.xlsx
+++ b/Information/Изменение результатов.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\1\Desktop\MAPF_System_2\Information\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52DE526A-4C2B-4401-95DB-6CD5C6B20FEF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1FF0508F-8C74-4F05-BB41-B1EDAAEA926B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="599" xr2:uid="{0BBE610F-FD71-401D-9DCE-6AF9F6A4B4C0}"/>
   </bookViews>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="65">
   <si>
     <t>Имя файла</t>
   </si>
@@ -233,6 +233,9 @@
   </si>
   <si>
     <t>сколько раз была посещена</t>
+  </si>
+  <si>
+    <t>новый тестовый пример</t>
   </si>
 </sst>
 </file>
@@ -258,7 +261,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="10">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -313,6 +316,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="2">
     <border>
@@ -341,7 +350,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -360,6 +369,7 @@
     <xf numFmtId="1" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="1" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="1" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -404,8 +414,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{4C936CED-848B-4EA0-94E0-2C574269E7A0}" name="Таблица1" displayName="Таблица1" ref="A1:B41" totalsRowShown="0">
-  <autoFilter ref="A1:B41" xr:uid="{4C936CED-848B-4EA0-94E0-2C574269E7A0}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{4C936CED-848B-4EA0-94E0-2C574269E7A0}" name="Таблица1" displayName="Таблица1" ref="A1:B42" totalsRowShown="0">
+  <autoFilter ref="A1:B42" xr:uid="{4C936CED-848B-4EA0-94E0-2C574269E7A0}"/>
   <tableColumns count="2">
     <tableColumn id="1" xr3:uid="{6C059A1A-D0AC-45A8-BE50-6234E26C3DC0}" name="Имя файла"/>
     <tableColumn id="2" xr3:uid="{49C62334-0689-4B3B-8031-F0B40E62095E}" name="Колличество шагов"/>
@@ -733,8 +743,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:W58"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A26" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="H50" sqref="H50"/>
+    <sheetView tabSelected="1" topLeftCell="C21" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="K9" sqref="K9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -747,7 +757,7 @@
     <col min="6" max="6" width="22.140625" customWidth="1"/>
     <col min="7" max="7" width="26" customWidth="1"/>
     <col min="8" max="8" width="24" customWidth="1"/>
-    <col min="9" max="9" width="9.140625" style="2"/>
+    <col min="9" max="9" width="23" customWidth="1"/>
     <col min="10" max="10" width="9.7109375" style="2" customWidth="1"/>
     <col min="11" max="15" width="9.140625" style="2"/>
     <col min="16" max="23" width="21.140625" style="2" bestFit="1" customWidth="1"/>
@@ -779,6 +789,9 @@
       <c r="H1" t="s">
         <v>1</v>
       </c>
+      <c r="I1" t="s">
+        <v>1</v>
+      </c>
       <c r="N1" s="3"/>
       <c r="O1" s="3"/>
       <c r="V1" s="3"/>
@@ -809,7 +822,9 @@
       <c r="H2">
         <v>4</v>
       </c>
-      <c r="I2" s="4"/>
+      <c r="I2">
+        <v>4</v>
+      </c>
       <c r="J2" s="4"/>
       <c r="L2" s="4"/>
       <c r="M2" s="4"/>
@@ -841,7 +856,9 @@
       <c r="H3">
         <v>3</v>
       </c>
-      <c r="I3" s="4"/>
+      <c r="I3">
+        <v>3</v>
+      </c>
       <c r="J3" s="4"/>
       <c r="L3" s="4"/>
       <c r="M3" s="4"/>
@@ -873,7 +890,9 @@
       <c r="H4">
         <v>42</v>
       </c>
-      <c r="I4" s="4"/>
+      <c r="I4">
+        <v>42</v>
+      </c>
       <c r="J4" s="4"/>
       <c r="L4" s="4"/>
       <c r="M4" s="4"/>
@@ -905,7 +924,9 @@
       <c r="H5" s="10">
         <v>20</v>
       </c>
-      <c r="I5" s="4"/>
+      <c r="I5">
+        <v>20</v>
+      </c>
       <c r="J5" s="4"/>
       <c r="L5" s="4"/>
       <c r="M5" s="4"/>
@@ -937,7 +958,9 @@
       <c r="H6">
         <v>4</v>
       </c>
-      <c r="I6" s="4"/>
+      <c r="I6">
+        <v>4</v>
+      </c>
       <c r="J6" s="4"/>
       <c r="L6" s="4"/>
       <c r="M6" s="4"/>
@@ -969,7 +992,9 @@
       <c r="H7">
         <v>9</v>
       </c>
-      <c r="I7" s="4"/>
+      <c r="I7">
+        <v>9</v>
+      </c>
       <c r="J7" s="4"/>
       <c r="L7" s="4"/>
       <c r="M7" s="4"/>
@@ -1001,7 +1026,9 @@
       <c r="H8">
         <v>10</v>
       </c>
-      <c r="I8" s="4"/>
+      <c r="I8">
+        <v>10</v>
+      </c>
       <c r="J8" s="4"/>
       <c r="L8" s="4"/>
       <c r="M8" s="4"/>
@@ -1033,7 +1060,9 @@
       <c r="H9">
         <v>74</v>
       </c>
-      <c r="I9" s="4"/>
+      <c r="I9">
+        <v>74</v>
+      </c>
       <c r="J9" s="4"/>
       <c r="L9" s="4"/>
       <c r="M9" s="4"/>
@@ -1065,7 +1094,9 @@
       <c r="H10">
         <v>79</v>
       </c>
-      <c r="I10" s="4"/>
+      <c r="I10">
+        <v>79</v>
+      </c>
       <c r="J10" s="4"/>
       <c r="L10" s="4"/>
       <c r="M10" s="4"/>
@@ -1097,7 +1128,9 @@
       <c r="H11">
         <v>385</v>
       </c>
-      <c r="I11" s="4"/>
+      <c r="I11">
+        <v>385</v>
+      </c>
       <c r="J11" s="4"/>
       <c r="L11" s="4"/>
       <c r="M11" s="4"/>
@@ -1129,7 +1162,9 @@
       <c r="H12">
         <v>58</v>
       </c>
-      <c r="I12" s="4"/>
+      <c r="I12">
+        <v>58</v>
+      </c>
       <c r="J12" s="4"/>
       <c r="L12" s="4"/>
       <c r="M12" s="4"/>
@@ -1161,7 +1196,9 @@
       <c r="H13">
         <v>1213</v>
       </c>
-      <c r="I13" s="4"/>
+      <c r="I13">
+        <v>1213</v>
+      </c>
       <c r="J13" s="4"/>
       <c r="L13" s="4"/>
       <c r="M13" s="4"/>
@@ -1193,7 +1230,9 @@
       <c r="H14">
         <v>33</v>
       </c>
-      <c r="I14" s="4"/>
+      <c r="I14">
+        <v>33</v>
+      </c>
       <c r="J14" s="4"/>
       <c r="L14" s="4"/>
       <c r="M14" s="4"/>
@@ -1225,7 +1264,9 @@
       <c r="H15">
         <v>71</v>
       </c>
-      <c r="I15" s="4"/>
+      <c r="I15">
+        <v>71</v>
+      </c>
       <c r="J15" s="4"/>
       <c r="L15" s="4"/>
       <c r="M15" s="4"/>
@@ -1257,7 +1298,9 @@
       <c r="H16">
         <v>49</v>
       </c>
-      <c r="I16" s="4"/>
+      <c r="I16">
+        <v>49</v>
+      </c>
       <c r="J16" s="4"/>
       <c r="L16" s="4"/>
       <c r="M16" s="4"/>
@@ -1289,7 +1332,9 @@
       <c r="H17">
         <v>50</v>
       </c>
-      <c r="I17" s="4"/>
+      <c r="I17">
+        <v>50</v>
+      </c>
       <c r="J17" s="4"/>
       <c r="L17" s="4"/>
       <c r="M17" s="4"/>
@@ -1321,7 +1366,9 @@
       <c r="H18">
         <v>56</v>
       </c>
-      <c r="I18" s="4"/>
+      <c r="I18">
+        <v>56</v>
+      </c>
       <c r="J18" s="4"/>
       <c r="L18" s="4"/>
       <c r="M18" s="4"/>
@@ -1353,7 +1400,9 @@
       <c r="H19">
         <v>191</v>
       </c>
-      <c r="I19" s="4"/>
+      <c r="I19">
+        <v>191</v>
+      </c>
       <c r="J19" s="4"/>
       <c r="L19" s="4"/>
       <c r="M19" s="4"/>
@@ -1361,31 +1410,9 @@
       <c r="V19" s="5"/>
     </row>
     <row r="20" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A20" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="B20">
-        <v>397</v>
-      </c>
-      <c r="C20" s="7">
-        <v>557</v>
-      </c>
-      <c r="D20" s="10">
-        <v>392</v>
-      </c>
-      <c r="E20" s="11">
-        <v>392</v>
-      </c>
-      <c r="F20" s="10">
-        <v>261</v>
-      </c>
-      <c r="G20" s="15">
-        <v>96</v>
-      </c>
-      <c r="H20">
-        <v>96</v>
-      </c>
-      <c r="I20" s="4"/>
+      <c r="I20" s="18">
+        <v>305</v>
+      </c>
       <c r="J20" s="4"/>
       <c r="L20" s="4"/>
       <c r="M20" s="4"/>
@@ -1394,30 +1421,32 @@
     </row>
     <row r="21" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B21">
-        <v>864</v>
-      </c>
-      <c r="C21" s="6">
-        <v>569</v>
+        <v>397</v>
+      </c>
+      <c r="C21" s="7">
+        <v>557</v>
       </c>
       <c r="D21" s="10">
-        <v>409</v>
+        <v>392</v>
       </c>
       <c r="E21" s="11">
-        <v>409</v>
+        <v>392</v>
       </c>
       <c r="F21" s="10">
-        <v>208</v>
-      </c>
-      <c r="G21" s="16">
-        <v>253</v>
+        <v>261</v>
+      </c>
+      <c r="G21" s="15">
+        <v>96</v>
       </c>
       <c r="H21">
-        <v>253</v>
-      </c>
-      <c r="I21" s="4"/>
+        <v>96</v>
+      </c>
+      <c r="I21">
+        <v>96</v>
+      </c>
       <c r="J21" s="4"/>
       <c r="L21" s="4"/>
       <c r="M21" s="4"/>
@@ -1426,30 +1455,32 @@
     </row>
     <row r="22" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B22">
-        <v>374</v>
+        <v>864</v>
       </c>
       <c r="C22" s="6">
-        <v>343</v>
-      </c>
-      <c r="D22" s="7">
-        <v>399</v>
+        <v>569</v>
+      </c>
+      <c r="D22" s="10">
+        <v>409</v>
       </c>
       <c r="E22" s="11">
-        <v>399</v>
+        <v>409</v>
       </c>
       <c r="F22" s="10">
-        <v>292</v>
-      </c>
-      <c r="G22" s="15">
-        <v>176</v>
+        <v>208</v>
+      </c>
+      <c r="G22" s="16">
+        <v>253</v>
       </c>
       <c r="H22">
-        <v>176</v>
-      </c>
-      <c r="I22" s="4"/>
+        <v>253</v>
+      </c>
+      <c r="I22">
+        <v>253</v>
+      </c>
       <c r="J22" s="4"/>
       <c r="L22" s="4"/>
       <c r="M22" s="4"/>
@@ -1458,30 +1489,32 @@
     </row>
     <row r="23" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B23">
-        <v>246</v>
-      </c>
-      <c r="C23" s="7">
-        <v>277</v>
+        <v>374</v>
+      </c>
+      <c r="C23" s="6">
+        <v>343</v>
       </c>
       <c r="D23" s="7">
-        <v>321</v>
+        <v>399</v>
       </c>
       <c r="E23" s="11">
-        <v>321</v>
+        <v>399</v>
       </c>
       <c r="F23" s="10">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="G23" s="15">
-        <v>270</v>
-      </c>
-      <c r="H23" s="10">
-        <v>137</v>
-      </c>
-      <c r="I23" s="4"/>
+        <v>176</v>
+      </c>
+      <c r="H23">
+        <v>176</v>
+      </c>
+      <c r="I23">
+        <v>176</v>
+      </c>
       <c r="J23" s="4"/>
       <c r="L23" s="4"/>
       <c r="M23" s="4"/>
@@ -1490,30 +1523,32 @@
     </row>
     <row r="24" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B24">
-        <v>323</v>
-      </c>
-      <c r="C24" s="8">
-        <v>231</v>
-      </c>
-      <c r="D24" s="10">
-        <v>265</v>
+        <v>246</v>
+      </c>
+      <c r="C24" s="7">
+        <v>277</v>
+      </c>
+      <c r="D24" s="7">
+        <v>321</v>
       </c>
       <c r="E24" s="11">
-        <v>265</v>
+        <v>321</v>
       </c>
       <c r="F24" s="10">
-        <v>234</v>
+        <v>291</v>
       </c>
       <c r="G24" s="15">
-        <v>118</v>
-      </c>
-      <c r="H24">
-        <v>118</v>
-      </c>
-      <c r="I24" s="4"/>
+        <v>270</v>
+      </c>
+      <c r="H24" s="10">
+        <v>137</v>
+      </c>
+      <c r="I24">
+        <v>137</v>
+      </c>
       <c r="J24" s="4"/>
       <c r="L24" s="4"/>
       <c r="M24" s="4"/>
@@ -1522,30 +1557,32 @@
     </row>
     <row r="25" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B25">
-        <v>354</v>
-      </c>
-      <c r="C25" s="7">
-        <v>581</v>
+        <v>323</v>
+      </c>
+      <c r="C25" s="8">
+        <v>231</v>
       </c>
       <c r="D25" s="10">
-        <v>231</v>
+        <v>265</v>
       </c>
       <c r="E25" s="11">
-        <v>231</v>
+        <v>265</v>
       </c>
       <c r="F25" s="10">
-        <v>211</v>
+        <v>234</v>
       </c>
       <c r="G25" s="15">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="H25">
-        <v>119</v>
-      </c>
-      <c r="I25" s="4"/>
+        <v>118</v>
+      </c>
+      <c r="I25">
+        <v>118</v>
+      </c>
       <c r="J25" s="4"/>
       <c r="L25" s="4"/>
       <c r="M25" s="4"/>
@@ -1554,30 +1591,32 @@
     </row>
     <row r="26" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
-        <v>16</v>
+        <v>42</v>
       </c>
       <c r="B26">
-        <v>67</v>
-      </c>
-      <c r="C26" s="6">
-        <v>65</v>
-      </c>
-      <c r="D26">
-        <v>67</v>
+        <v>354</v>
+      </c>
+      <c r="C26" s="7">
+        <v>581</v>
+      </c>
+      <c r="D26" s="10">
+        <v>231</v>
       </c>
       <c r="E26" s="11">
-        <v>67</v>
-      </c>
-      <c r="F26" s="7">
-        <v>87</v>
-      </c>
-      <c r="G26" s="16">
-        <v>89</v>
+        <v>231</v>
+      </c>
+      <c r="F26" s="10">
+        <v>211</v>
+      </c>
+      <c r="G26" s="15">
+        <v>119</v>
       </c>
       <c r="H26">
-        <v>89</v>
-      </c>
-      <c r="I26" s="4"/>
+        <v>119</v>
+      </c>
+      <c r="I26">
+        <v>119</v>
+      </c>
       <c r="J26" s="4"/>
       <c r="L26" s="4"/>
       <c r="M26" s="4"/>
@@ -1586,30 +1625,32 @@
     </row>
     <row r="27" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
-        <v>41</v>
+        <v>16</v>
       </c>
       <c r="B27">
-        <v>50</v>
-      </c>
-      <c r="C27" s="7">
-        <v>73</v>
-      </c>
-      <c r="D27" s="7">
-        <v>73</v>
+        <v>67</v>
+      </c>
+      <c r="C27" s="6">
+        <v>65</v>
+      </c>
+      <c r="D27">
+        <v>67</v>
       </c>
       <c r="E27" s="11">
-        <v>73</v>
-      </c>
-      <c r="F27" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="G27" s="15">
-        <v>33</v>
+        <v>67</v>
+      </c>
+      <c r="F27" s="7">
+        <v>87</v>
+      </c>
+      <c r="G27" s="16">
+        <v>89</v>
       </c>
       <c r="H27">
-        <v>33</v>
-      </c>
-      <c r="I27" s="4"/>
+        <v>89</v>
+      </c>
+      <c r="I27">
+        <v>89</v>
+      </c>
       <c r="J27" s="4"/>
       <c r="L27" s="4"/>
       <c r="M27" s="4"/>
@@ -1618,30 +1659,32 @@
     </row>
     <row r="28" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
-        <v>17</v>
+        <v>41</v>
       </c>
       <c r="B28">
-        <v>17</v>
-      </c>
-      <c r="C28">
-        <v>17</v>
-      </c>
-      <c r="D28" s="10">
-        <v>16</v>
+        <v>50</v>
+      </c>
+      <c r="C28" s="7">
+        <v>73</v>
+      </c>
+      <c r="D28" s="7">
+        <v>73</v>
       </c>
       <c r="E28" s="11">
-        <v>16</v>
-      </c>
-      <c r="F28">
-        <v>16</v>
-      </c>
-      <c r="G28" s="16">
-        <v>38</v>
+        <v>73</v>
+      </c>
+      <c r="F28" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="G28" s="15">
+        <v>33</v>
       </c>
       <c r="H28">
-        <v>38</v>
-      </c>
-      <c r="I28" s="4"/>
+        <v>33</v>
+      </c>
+      <c r="I28">
+        <v>33</v>
+      </c>
       <c r="J28" s="4"/>
       <c r="L28" s="4"/>
       <c r="M28" s="4"/>
@@ -1650,30 +1693,32 @@
     </row>
     <row r="29" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B29">
-        <v>19</v>
-      </c>
-      <c r="C29" s="6">
         <v>17</v>
       </c>
-      <c r="D29">
-        <v>19</v>
+      <c r="C29">
+        <v>17</v>
+      </c>
+      <c r="D29" s="10">
+        <v>16</v>
       </c>
       <c r="E29" s="11">
-        <v>19</v>
-      </c>
-      <c r="F29" s="10">
-        <v>15</v>
-      </c>
-      <c r="G29" s="15">
-        <v>13</v>
+        <v>16</v>
+      </c>
+      <c r="F29">
+        <v>16</v>
+      </c>
+      <c r="G29" s="16">
+        <v>38</v>
       </c>
       <c r="H29">
-        <v>13</v>
-      </c>
-      <c r="I29" s="4"/>
+        <v>38</v>
+      </c>
+      <c r="I29">
+        <v>38</v>
+      </c>
       <c r="J29" s="4"/>
       <c r="L29" s="4"/>
       <c r="M29" s="4"/>
@@ -1682,27 +1727,30 @@
     </row>
     <row r="30" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B30">
         <v>19</v>
-      </c>
-      <c r="B30">
-        <v>18</v>
       </c>
       <c r="C30" s="6">
         <v>17</v>
       </c>
-      <c r="D30" s="7">
+      <c r="D30">
         <v>19</v>
       </c>
       <c r="E30" s="11">
         <v>19</v>
       </c>
       <c r="F30" s="10">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="G30" s="15">
         <v>13</v>
       </c>
       <c r="H30">
+        <v>13</v>
+      </c>
+      <c r="I30">
         <v>13</v>
       </c>
       <c r="L30" s="4"/>
@@ -1712,28 +1760,31 @@
     </row>
     <row r="31" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B31">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C31" s="6">
+        <v>17</v>
+      </c>
+      <c r="D31" s="7">
         <v>19</v>
       </c>
-      <c r="D31">
-        <v>21</v>
-      </c>
       <c r="E31" s="11">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F31" s="10">
+        <v>17</v>
+      </c>
+      <c r="G31" s="15">
         <v>13</v>
       </c>
-      <c r="G31" s="16">
-        <v>15</v>
-      </c>
       <c r="H31">
-        <v>15</v>
+        <v>13</v>
+      </c>
+      <c r="I31">
+        <v>13</v>
       </c>
       <c r="L31" s="4"/>
       <c r="M31" s="4"/>
@@ -1742,15 +1793,15 @@
     </row>
     <row r="32" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B32">
         <v>21</v>
-      </c>
-      <c r="B32">
-        <v>20</v>
       </c>
       <c r="C32" s="6">
         <v>19</v>
       </c>
-      <c r="D32" s="7">
+      <c r="D32">
         <v>21</v>
       </c>
       <c r="E32" s="11">
@@ -1763,6 +1814,9 @@
         <v>15</v>
       </c>
       <c r="H32">
+        <v>15</v>
+      </c>
+      <c r="I32">
         <v>15</v>
       </c>
       <c r="L32" s="4"/>
@@ -1780,28 +1834,31 @@
     </row>
     <row r="33" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B33">
+        <v>20</v>
+      </c>
+      <c r="C33" s="6">
+        <v>19</v>
+      </c>
+      <c r="D33" s="7">
         <v>21</v>
       </c>
-      <c r="C33" s="7">
-        <v>22</v>
-      </c>
-      <c r="D33" s="10">
-        <v>19</v>
-      </c>
       <c r="E33" s="11">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="F33" s="10">
+        <v>13</v>
+      </c>
+      <c r="G33" s="16">
         <v>15</v>
       </c>
-      <c r="G33" s="16">
-        <v>17</v>
-      </c>
       <c r="H33">
-        <v>17</v>
+        <v>15</v>
+      </c>
+      <c r="I33">
+        <v>15</v>
       </c>
       <c r="L33" s="4"/>
       <c r="M33" s="4"/>
@@ -1810,13 +1867,13 @@
     </row>
     <row r="34" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B34">
         <v>21</v>
       </c>
-      <c r="C34" s="6">
-        <v>19</v>
+      <c r="C34" s="7">
+        <v>22</v>
       </c>
       <c r="D34" s="10">
         <v>19</v>
@@ -1831,6 +1888,9 @@
         <v>17</v>
       </c>
       <c r="H34">
+        <v>17</v>
+      </c>
+      <c r="I34">
         <v>17</v>
       </c>
       <c r="L34" s="4"/>
@@ -1839,28 +1899,31 @@
     </row>
     <row r="35" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B35">
-        <v>20</v>
-      </c>
-      <c r="C35">
-        <v>20</v>
-      </c>
-      <c r="D35">
-        <v>20</v>
+        <v>21</v>
+      </c>
+      <c r="C35" s="6">
+        <v>19</v>
+      </c>
+      <c r="D35" s="10">
+        <v>19</v>
       </c>
       <c r="E35" s="11">
-        <v>20</v>
-      </c>
-      <c r="F35">
-        <v>20</v>
-      </c>
-      <c r="G35" s="17">
-        <v>20</v>
+        <v>19</v>
+      </c>
+      <c r="F35" s="10">
+        <v>15</v>
+      </c>
+      <c r="G35" s="16">
+        <v>17</v>
       </c>
       <c r="H35">
-        <v>20</v>
+        <v>17</v>
+      </c>
+      <c r="I35">
+        <v>17</v>
       </c>
       <c r="L35" s="4"/>
       <c r="M35" s="4"/>
@@ -1870,28 +1933,31 @@
     </row>
     <row r="36" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B36">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="C36">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="D36">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="E36" s="11">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="F36">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="G36" s="17">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="H36">
-        <v>5</v>
+        <v>20</v>
+      </c>
+      <c r="I36">
+        <v>20</v>
       </c>
       <c r="L36" s="4"/>
       <c r="M36" s="4"/>
@@ -1900,28 +1966,31 @@
     </row>
     <row r="37" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B37">
-        <v>21</v>
-      </c>
-      <c r="C37" s="6">
-        <v>17</v>
-      </c>
-      <c r="D37" s="10">
-        <v>17</v>
-      </c>
-      <c r="E37" s="12">
-        <v>9</v>
+        <v>5</v>
+      </c>
+      <c r="C37">
+        <v>5</v>
+      </c>
+      <c r="D37">
+        <v>5</v>
+      </c>
+      <c r="E37" s="11">
+        <v>5</v>
       </c>
       <c r="F37">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="G37" s="17">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="H37">
-        <v>9</v>
+        <v>5</v>
+      </c>
+      <c r="I37">
+        <v>5</v>
       </c>
       <c r="L37" s="4"/>
       <c r="M37" s="4"/>
@@ -1930,27 +1999,30 @@
     </row>
     <row r="38" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B38" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="C38" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="D38" s="1" t="s">
-        <v>30</v>
+        <v>26</v>
+      </c>
+      <c r="B38">
+        <v>21</v>
+      </c>
+      <c r="C38" s="6">
+        <v>17</v>
+      </c>
+      <c r="D38" s="10">
+        <v>17</v>
       </c>
       <c r="E38" s="12">
-        <v>16</v>
-      </c>
-      <c r="F38" s="10">
+        <v>9</v>
+      </c>
+      <c r="F38">
         <v>9</v>
       </c>
       <c r="G38" s="17">
         <v>9</v>
       </c>
       <c r="H38">
+        <v>9</v>
+      </c>
+      <c r="I38">
         <v>9</v>
       </c>
       <c r="L38" s="4"/>
@@ -1959,30 +2031,32 @@
     </row>
     <row r="39" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B39">
-        <v>36</v>
-      </c>
-      <c r="C39">
-        <v>36</v>
-      </c>
-      <c r="D39">
-        <v>36</v>
-      </c>
-      <c r="E39" s="11">
-        <v>36</v>
+        <v>27</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E39" s="12">
+        <v>16</v>
       </c>
       <c r="F39" s="10">
-        <v>25</v>
-      </c>
-      <c r="G39" s="16">
-        <v>30</v>
+        <v>9</v>
+      </c>
+      <c r="G39" s="17">
+        <v>9</v>
       </c>
       <c r="H39">
-        <v>30</v>
-      </c>
-      <c r="I39" s="4"/>
+        <v>9</v>
+      </c>
+      <c r="I39">
+        <v>9</v>
+      </c>
       <c r="J39" s="4"/>
       <c r="L39" s="4"/>
       <c r="M39" s="4"/>
@@ -1992,30 +2066,32 @@
     </row>
     <row r="40" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="B40">
-        <v>15</v>
+        <v>36</v>
       </c>
       <c r="C40">
-        <v>15</v>
+        <v>36</v>
       </c>
       <c r="D40">
-        <v>15</v>
+        <v>36</v>
       </c>
       <c r="E40" s="11">
-        <v>15</v>
-      </c>
-      <c r="F40">
-        <v>15</v>
-      </c>
-      <c r="G40" s="17">
-        <v>15</v>
+        <v>36</v>
+      </c>
+      <c r="F40" s="10">
+        <v>25</v>
+      </c>
+      <c r="G40" s="16">
+        <v>30</v>
       </c>
       <c r="H40">
-        <v>15</v>
-      </c>
-      <c r="I40" s="4"/>
+        <v>30</v>
+      </c>
+      <c r="I40">
+        <v>30</v>
+      </c>
       <c r="J40" s="4"/>
       <c r="L40" s="4"/>
       <c r="M40" s="4"/>
@@ -2023,28 +2099,31 @@
     </row>
     <row r="41" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="B41">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C41">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="D41">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="E41" s="11">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="F41">
-        <v>12</v>
-      </c>
-      <c r="G41" s="16">
-        <v>24</v>
+        <v>15</v>
+      </c>
+      <c r="G41" s="17">
+        <v>15</v>
       </c>
       <c r="H41">
-        <v>24</v>
+        <v>15</v>
+      </c>
+      <c r="I41">
+        <v>15</v>
       </c>
       <c r="L41" s="4"/>
       <c r="M41" s="4"/>
@@ -2056,9 +2135,33 @@
       <c r="V41" s="5"/>
     </row>
     <row r="42" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A42" s="4"/>
-      <c r="B42" s="4"/>
-      <c r="I42" s="4"/>
+      <c r="A42" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B42">
+        <v>12</v>
+      </c>
+      <c r="C42">
+        <v>12</v>
+      </c>
+      <c r="D42">
+        <v>12</v>
+      </c>
+      <c r="E42" s="11">
+        <v>12</v>
+      </c>
+      <c r="F42">
+        <v>12</v>
+      </c>
+      <c r="G42" s="16">
+        <v>24</v>
+      </c>
+      <c r="H42">
+        <v>24</v>
+      </c>
+      <c r="I42">
+        <v>24</v>
+      </c>
       <c r="J42" s="4"/>
       <c r="L42" s="5"/>
       <c r="M42" s="5"/>
@@ -2069,7 +2172,6 @@
       <c r="A43" s="4"/>
       <c r="B43" s="4"/>
       <c r="F43" s="14"/>
-      <c r="I43" s="4"/>
       <c r="J43" s="4"/>
       <c r="P43" s="4"/>
       <c r="V43" s="5"/>
@@ -2078,7 +2180,6 @@
       <c r="A44" s="4"/>
       <c r="B44" s="4"/>
       <c r="G44" s="14"/>
-      <c r="I44" s="4"/>
       <c r="J44" s="4"/>
       <c r="L44" s="5"/>
       <c r="M44" s="5"/>
@@ -2092,30 +2193,29 @@
         <v>7159</v>
       </c>
       <c r="C45" s="9">
-        <f>SUM(C2:C41)</f>
+        <f>SUM(C2:C42)</f>
         <v>7585</v>
       </c>
       <c r="D45" s="9">
-        <f>SUM(D2:D41)</f>
+        <f>SUM(D2:D42)</f>
         <v>6193</v>
       </c>
       <c r="E45" s="9">
-        <f>SUM(E2:E41)</f>
+        <f>SUM(E2:E42)</f>
         <v>6192</v>
       </c>
       <c r="F45" s="9">
-        <f>SUM(F2:F41)</f>
+        <f>SUM(F2:F42)</f>
         <v>5150</v>
       </c>
       <c r="G45" s="9">
-        <f>SUM(G2:G41)</f>
+        <f>SUM(G2:G42)</f>
         <v>3746</v>
       </c>
       <c r="H45" s="9">
-        <f>SUM(H2:H41)</f>
+        <f>SUM(H2:H42)</f>
         <v>3612</v>
       </c>
-      <c r="I45" s="4"/>
       <c r="J45" s="4"/>
       <c r="P45" s="4"/>
       <c r="V45" s="5"/>
@@ -2123,7 +2223,6 @@
     <row r="46" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A46" s="4"/>
       <c r="B46" s="4"/>
-      <c r="I46" s="4"/>
       <c r="J46" s="4"/>
       <c r="L46" s="5"/>
       <c r="M46" s="5"/>
@@ -2153,7 +2252,9 @@
       <c r="H47" t="s">
         <v>61</v>
       </c>
-      <c r="I47" s="4"/>
+      <c r="I47" t="s">
+        <v>64</v>
+      </c>
       <c r="J47" s="4"/>
       <c r="P47" s="4"/>
       <c r="V47" s="5"/>
@@ -2176,7 +2277,6 @@
       <c r="H48" t="s">
         <v>62</v>
       </c>
-      <c r="I48" s="4"/>
       <c r="J48" s="4"/>
       <c r="L48" s="5"/>
       <c r="M48" s="5"/>
@@ -2198,7 +2298,6 @@
       <c r="H49" t="s">
         <v>63</v>
       </c>
-      <c r="I49" s="4"/>
       <c r="J49" s="4"/>
       <c r="P49" s="4"/>
       <c r="V49" s="5"/>
@@ -2209,7 +2308,6 @@
       <c r="G50" t="s">
         <v>56</v>
       </c>
-      <c r="I50" s="4"/>
       <c r="J50" s="4"/>
       <c r="L50" s="5"/>
       <c r="M50" s="5"/>
@@ -2222,7 +2320,6 @@
       <c r="G51" t="s">
         <v>57</v>
       </c>
-      <c r="I51" s="4"/>
       <c r="J51" s="4"/>
       <c r="P51" s="4"/>
       <c r="V51" s="5"/>
@@ -2233,7 +2330,6 @@
       <c r="G52" t="s">
         <v>58</v>
       </c>
-      <c r="I52" s="4"/>
       <c r="J52" s="4"/>
       <c r="L52" s="5"/>
       <c r="M52" s="5"/>
@@ -2246,7 +2342,6 @@
       <c r="G53" t="s">
         <v>59</v>
       </c>
-      <c r="I53" s="4"/>
       <c r="J53" s="4"/>
       <c r="P53" s="4"/>
       <c r="V53" s="5"/>
@@ -2256,7 +2351,6 @@
       <c r="G54" t="s">
         <v>60</v>
       </c>
-      <c r="I54" s="4"/>
       <c r="J54" s="4"/>
       <c r="K54" s="4"/>
       <c r="L54" s="5"/>
@@ -2267,24 +2361,20 @@
     <row r="55" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A55" s="4"/>
       <c r="B55" s="4"/>
-      <c r="I55" s="4"/>
       <c r="J55" s="4"/>
       <c r="K55" s="4"/>
       <c r="P55" s="4"/>
       <c r="V55" s="5"/>
     </row>
     <row r="56" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="I56" s="4"/>
       <c r="J56" s="4"/>
       <c r="K56" s="4"/>
     </row>
     <row r="57" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="I57" s="4"/>
       <c r="J57" s="4"/>
       <c r="K57" s="4"/>
     </row>
     <row r="58" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="I58" s="4"/>
       <c r="J58" s="4"/>
       <c r="K58" s="4"/>
     </row>
